--- a/Original Data.xlsx
+++ b/Original Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chitis/Dropbox/Johns Hopkins/Spring 2021/Decision Analytics/Mini Project 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44254795-95DB-9845-A24D-727DF4D1B900}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A35F4B86-1CE2-A948-A94A-9655B20E37CD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16280" activeTab="4" xr2:uid="{1F2CDC2D-36ED-6040-B61B-3E1CDC36F55D}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16280" xr2:uid="{1F2CDC2D-36ED-6040-B61B-3E1CDC36F55D}"/>
   </bookViews>
   <sheets>
     <sheet name="Original CO Household Income" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Original CO Rent " sheetId="10" r:id="rId4"/>
     <sheet name="Merged Data" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -625,9 +625,6 @@
     <t>Saddle Rock Ridge, Centennial, CO</t>
   </si>
   <si>
-    <t>Employement Rate</t>
-  </si>
-  <si>
     <t>Household Income</t>
   </si>
   <si>
@@ -680,6 +677,9 @@
   </si>
   <si>
     <t>Rent</t>
+  </si>
+  <si>
+    <t>Employment Rate</t>
   </si>
 </sst>
 </file>
@@ -914,9 +914,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -946,6 +943,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1263,8 +1263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA48D955-35D9-9C43-B5B1-127A465D1B25}">
   <dimension ref="A1:C467"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6421,5130 +6421,5130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
+      <c r="A1" s="16"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>8031002801</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>0.72360000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="9">
+      <c r="A4" s="8">
         <v>8059010306</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="10">
         <v>0.81020000000000003</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="9">
+      <c r="A5" s="8">
         <v>8059010307</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="10">
         <v>0.7641</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="9">
+      <c r="A6" s="8">
         <v>8059010305</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="10">
         <v>0.81910000000000005</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="9">
+      <c r="A7" s="8">
         <v>8059010304</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="10">
         <v>0.81469999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="9">
+      <c r="A8" s="8">
         <v>8059009852</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="10">
         <v>0.81040000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="9">
+      <c r="A9" s="8">
         <v>8059009807</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="10">
         <v>0.80989999999999995</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="9">
+      <c r="A10" s="8">
         <v>8059009806</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="10">
         <v>0.78849999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="9">
+      <c r="A11" s="8">
         <v>8059010901</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="10">
         <v>0.78490000000000004</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="9">
+      <c r="A12" s="8">
         <v>8059010801</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="10">
         <v>0.81810000000000005</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="9">
+      <c r="A13" s="8">
         <v>8059010504</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="10">
         <v>0.81710000000000005</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="9">
+      <c r="A14" s="8">
         <v>8059015800</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="10">
         <v>0.79300000000000004</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="9">
+      <c r="A15" s="8">
         <v>8059010308</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="10">
         <v>0.79379999999999995</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="9">
+      <c r="A16" s="8">
         <v>8001009608</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="10">
         <v>0.80500000000000005</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="9">
+      <c r="A17" s="8">
         <v>8059010406</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="10">
         <v>0.72840000000000005</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="9">
+      <c r="A18" s="8">
         <v>8005082700</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="10">
         <v>0.85550000000000004</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="9">
+      <c r="A19" s="8">
         <v>8005082800</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="10">
         <v>0.78990000000000005</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="9">
+      <c r="A20" s="8">
         <v>8005080900</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="10">
         <v>0.80620000000000003</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="9">
+      <c r="A21" s="8">
         <v>8005080800</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="10">
         <v>0.77259999999999995</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="9">
+      <c r="A22" s="8">
         <v>8005084500</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="10">
         <v>0.83289999999999997</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="9">
+      <c r="A23" s="8">
         <v>8005083300</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="10">
         <v>0.80489999999999995</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="9">
+      <c r="A24" s="8">
         <v>8005007106</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="10">
         <v>0.83760000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="9">
+      <c r="A25" s="8">
         <v>8005082200</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C25" s="10">
         <v>0.82809999999999995</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="9">
+      <c r="A26" s="8">
         <v>8005082400</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C26" s="10">
         <v>0.82569999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="9">
+      <c r="A27" s="8">
         <v>8005084400</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="11">
+      <c r="C27" s="10">
         <v>0.81940000000000002</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="9">
+      <c r="A28" s="8">
         <v>8005085600</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C28" s="10">
         <v>0.81520000000000004</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="9">
+      <c r="A29" s="8">
         <v>8005083700</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C29" s="10">
         <v>0.81440000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="9">
+      <c r="A30" s="8">
         <v>8005084300</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C30" s="10">
         <v>0.80889999999999995</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="9">
+      <c r="A31" s="8">
         <v>8005085900</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="11">
+      <c r="C31" s="10">
         <v>0.78700000000000003</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="9">
+      <c r="A32" s="8">
         <v>8005083600</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="11">
+      <c r="C32" s="10">
         <v>0.7843</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="9">
+      <c r="A33" s="8">
         <v>8001007900</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="11">
+      <c r="C33" s="10">
         <v>0.76259999999999994</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="9">
+      <c r="A34" s="8">
         <v>8005007105</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="11">
+      <c r="C34" s="10">
         <v>0.76239999999999997</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="9">
+      <c r="A35" s="8">
         <v>8001008000</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="11">
+      <c r="C35" s="10">
         <v>0.76170000000000004</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="9">
+      <c r="A36" s="8">
         <v>8005007202</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C36" s="11">
+      <c r="C36" s="10">
         <v>0.75539999999999996</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="9">
+      <c r="A37" s="8">
         <v>8005007104</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C37" s="11">
+      <c r="C37" s="10">
         <v>0.74150000000000005</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="9">
+      <c r="A38" s="8">
         <v>8031001701</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C38" s="11">
+      <c r="C38" s="10">
         <v>0.72450000000000003</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="9">
+      <c r="A39" s="8">
         <v>8031000902</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="C39" s="11">
+      <c r="C39" s="10">
         <v>0.74380000000000002</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="9">
+      <c r="A40" s="8">
         <v>8031000903</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="C40" s="11">
+      <c r="C40" s="10">
         <v>0.70130000000000003</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="9">
+      <c r="A41" s="8">
         <v>8059010603</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="C41" s="11">
+      <c r="C41" s="10">
         <v>0.79330000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="9">
+      <c r="A42" s="8">
         <v>8059010604</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="C42" s="11">
+      <c r="C42" s="10">
         <v>0.76719999999999999</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="9">
+      <c r="A43" s="8">
         <v>8059010701</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="C43" s="11">
+      <c r="C43" s="10">
         <v>0.75519999999999998</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="9">
+      <c r="A44" s="8">
         <v>8059011731</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C44" s="11">
+      <c r="C44" s="10">
         <v>0.81589999999999996</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="9">
+      <c r="A45" s="8">
         <v>8059011729</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C45" s="11">
+      <c r="C45" s="10">
         <v>0.77249999999999996</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="9">
+      <c r="A46" s="8">
         <v>8059011730</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C46" s="11">
+      <c r="C46" s="10">
         <v>0.74339999999999995</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="9">
+      <c r="A47" s="8">
         <v>8031011902</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C47" s="11">
+      <c r="C47" s="10">
         <v>0.79210000000000003</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="9">
+      <c r="A48" s="8">
         <v>8031011903</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C48" s="11">
+      <c r="C48" s="10">
         <v>0.78039999999999998</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="9">
+      <c r="A49" s="8">
         <v>8059010502</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="C49" s="11">
+      <c r="C49" s="10">
         <v>0.77349999999999997</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="9">
+      <c r="A50" s="8">
         <v>8031003901</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C50" s="11">
+      <c r="C50" s="10">
         <v>0.79200000000000004</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="9">
+      <c r="A51" s="8">
         <v>8059011701</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C51" s="11">
+      <c r="C51" s="10">
         <v>0.82499999999999996</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="9">
+      <c r="A52" s="8">
         <v>8001008401</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C52" s="11">
+      <c r="C52" s="10">
         <v>0.81899999999999995</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="9">
+      <c r="A53" s="8">
         <v>8005007103</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C53" s="11">
+      <c r="C53" s="10">
         <v>0.7399</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="9">
+      <c r="A54" s="8">
         <v>8031000102</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B54" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="C54" s="11">
+      <c r="C54" s="10">
         <v>0.78979999999999995</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="9">
+      <c r="A55" s="8">
         <v>8031000301</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="B55" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="C55" s="11">
+      <c r="C55" s="10">
         <v>0.77459999999999996</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="9">
+      <c r="A56" s="8">
         <v>8001008541</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C56" s="11">
+      <c r="C56" s="10">
         <v>0.81369999999999998</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="9">
+      <c r="A57" s="8">
         <v>8001008549</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="B57" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C57" s="11">
+      <c r="C57" s="10">
         <v>0.76519999999999999</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="9">
+      <c r="A58" s="8">
         <v>8001008523</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="B58" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C58" s="11">
+      <c r="C58" s="10">
         <v>0.74109999999999998</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="9">
+      <c r="A59" s="8">
         <v>8014031100</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="B59" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C59" s="11">
+      <c r="C59" s="10">
         <v>0.85119999999999996</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" s="9">
+      <c r="A60" s="8">
         <v>8014031000</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="B60" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C60" s="11">
+      <c r="C60" s="10">
         <v>0.83660000000000001</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" s="9">
+      <c r="A61" s="8">
         <v>8014030700</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="B61" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C61" s="11">
+      <c r="C61" s="10">
         <v>0.83109999999999995</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="9">
+      <c r="A62" s="8">
         <v>8014030300</v>
       </c>
-      <c r="B62" s="10" t="s">
+      <c r="B62" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C62" s="11">
+      <c r="C62" s="10">
         <v>0.82889999999999997</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="9">
+      <c r="A63" s="8">
         <v>8014030900</v>
       </c>
-      <c r="B63" s="10" t="s">
+      <c r="B63" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C63" s="11">
+      <c r="C63" s="10">
         <v>0.82630000000000003</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="9">
+      <c r="A64" s="8">
         <v>8014030800</v>
       </c>
-      <c r="B64" s="10" t="s">
+      <c r="B64" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C64" s="11">
+      <c r="C64" s="10">
         <v>0.82399999999999995</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="9">
+      <c r="A65" s="8">
         <v>8014030400</v>
       </c>
-      <c r="B65" s="10" t="s">
+      <c r="B65" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C65" s="11">
+      <c r="C65" s="10">
         <v>0.81030000000000002</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="9">
+      <c r="A66" s="8">
         <v>8014030600</v>
       </c>
-      <c r="B66" s="10" t="s">
+      <c r="B66" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C66" s="11">
+      <c r="C66" s="10">
         <v>0.80800000000000005</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" s="9">
+      <c r="A67" s="8">
         <v>8014031200</v>
       </c>
-      <c r="B67" s="10" t="s">
+      <c r="B67" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C67" s="11">
+      <c r="C67" s="10">
         <v>0.80289999999999995</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" s="9">
+      <c r="A68" s="8">
         <v>8014030000</v>
       </c>
-      <c r="B68" s="10" t="s">
+      <c r="B68" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C68" s="11">
+      <c r="C68" s="10">
         <v>0.80100000000000005</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" s="9">
+      <c r="A69" s="8">
         <v>8014030200</v>
       </c>
-      <c r="B69" s="10" t="s">
+      <c r="B69" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C69" s="11">
+      <c r="C69" s="10">
         <v>0.79020000000000001</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" s="9">
+      <c r="A70" s="8">
         <v>8014030500</v>
       </c>
-      <c r="B70" s="10" t="s">
+      <c r="B70" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C70" s="11">
+      <c r="C70" s="10">
         <v>0.7853</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" s="9">
+      <c r="A71" s="8">
         <v>8014030100</v>
       </c>
-      <c r="B71" s="10" t="s">
+      <c r="B71" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C71" s="11">
+      <c r="C71" s="10">
         <v>0.76770000000000005</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" s="9">
+      <c r="A72" s="8">
         <v>8059009836</v>
       </c>
-      <c r="B72" s="10" t="s">
+      <c r="B72" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C72" s="11">
+      <c r="C72" s="10">
         <v>0.81630000000000003</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" s="9">
+      <c r="A73" s="8">
         <v>8059009815</v>
       </c>
-      <c r="B73" s="10" t="s">
+      <c r="B73" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C73" s="11">
+      <c r="C73" s="10">
         <v>0.8</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" s="9">
+      <c r="A74" s="8">
         <v>8031002701</v>
       </c>
-      <c r="B74" s="10" t="s">
+      <c r="B74" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="C74" s="11">
+      <c r="C74" s="10">
         <v>0.70930000000000004</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" s="9">
+      <c r="A75" s="8">
         <v>8059011728</v>
       </c>
-      <c r="B75" s="10" t="s">
+      <c r="B75" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C75" s="11">
+      <c r="C75" s="10">
         <v>0.8407</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" s="9">
+      <c r="A76" s="8">
         <v>8059011727</v>
       </c>
-      <c r="B76" s="10" t="s">
+      <c r="B76" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C76" s="11">
+      <c r="C76" s="10">
         <v>0.81630000000000003</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" s="9">
+      <c r="A77" s="8">
         <v>8005084200</v>
       </c>
-      <c r="B77" s="10" t="s">
+      <c r="B77" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C77" s="11">
+      <c r="C77" s="10">
         <v>0.80840000000000001</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" s="9">
+      <c r="A78" s="8">
         <v>8005084100</v>
       </c>
-      <c r="B78" s="10" t="s">
+      <c r="B78" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C78" s="11">
+      <c r="C78" s="10">
         <v>0.80420000000000003</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" s="9">
+      <c r="A79" s="8">
         <v>8005084900</v>
       </c>
-      <c r="B79" s="10" t="s">
+      <c r="B79" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C79" s="11">
+      <c r="C79" s="10">
         <v>0.82169999999999999</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" s="9">
+      <c r="A80" s="8">
         <v>8005085500</v>
       </c>
-      <c r="B80" s="10" t="s">
+      <c r="B80" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C80" s="11">
+      <c r="C80" s="10">
         <v>0.81200000000000006</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81" s="9">
+      <c r="A81" s="8">
         <v>8005081700</v>
       </c>
-      <c r="B81" s="10" t="s">
+      <c r="B81" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C81" s="11">
+      <c r="C81" s="10">
         <v>0.80579999999999996</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82" s="9">
+      <c r="A82" s="8">
         <v>8005086200</v>
       </c>
-      <c r="B82" s="10" t="s">
+      <c r="B82" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C82" s="11">
+      <c r="C82" s="10">
         <v>0.80279999999999996</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" s="9">
+      <c r="A83" s="8">
         <v>8005085400</v>
       </c>
-      <c r="B83" s="10" t="s">
+      <c r="B83" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C83" s="11">
+      <c r="C83" s="10">
         <v>0.80210000000000004</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" s="9">
+      <c r="A84" s="8">
         <v>8031003101</v>
       </c>
-      <c r="B84" s="10" t="s">
+      <c r="B84" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C84" s="11">
+      <c r="C84" s="10">
         <v>0.81830000000000003</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85" s="9">
+      <c r="A85" s="8">
         <v>8031003702</v>
       </c>
-      <c r="B85" s="10" t="s">
+      <c r="B85" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C85" s="11">
+      <c r="C85" s="10">
         <v>0.78680000000000005</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86" s="9">
+      <c r="A86" s="8">
         <v>8031003701</v>
       </c>
-      <c r="B86" s="10" t="s">
+      <c r="B86" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C86" s="11">
+      <c r="C86" s="10">
         <v>0.78639999999999999</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87" s="9">
+      <c r="A87" s="8">
         <v>8031002100</v>
       </c>
-      <c r="B87" s="10" t="s">
+      <c r="B87" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C87" s="11">
+      <c r="C87" s="10">
         <v>0.77329999999999999</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88" s="9">
+      <c r="A88" s="8">
         <v>8031002000</v>
       </c>
-      <c r="B88" s="10" t="s">
+      <c r="B88" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C88" s="11">
+      <c r="C88" s="10">
         <v>0.76839999999999997</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89" s="9">
+      <c r="A89" s="8">
         <v>8031003300</v>
       </c>
-      <c r="B89" s="10" t="s">
+      <c r="B89" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C89" s="11">
+      <c r="C89" s="10">
         <v>0.76739999999999997</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90" s="9">
+      <c r="A90" s="8">
         <v>8031003201</v>
       </c>
-      <c r="B90" s="10" t="s">
+      <c r="B90" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C90" s="11">
+      <c r="C90" s="10">
         <v>0.76229999999999998</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91" s="9">
+      <c r="A91" s="8">
         <v>8031001800</v>
       </c>
-      <c r="B91" s="10" t="s">
+      <c r="B91" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C91" s="11">
+      <c r="C91" s="10">
         <v>0.75070000000000003</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92" s="9">
+      <c r="A92" s="8">
         <v>8031001901</v>
       </c>
-      <c r="B92" s="10" t="s">
+      <c r="B92" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C92" s="11">
+      <c r="C92" s="10">
         <v>0.74450000000000005</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93" s="9">
+      <c r="A93" s="8">
         <v>8031003703</v>
       </c>
-      <c r="B93" s="10" t="s">
+      <c r="B93" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C93" s="11">
+      <c r="C93" s="10">
         <v>0.74160000000000004</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A94" s="9">
+      <c r="A94" s="8">
         <v>8031003203</v>
       </c>
-      <c r="B94" s="10" t="s">
+      <c r="B94" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C94" s="11">
+      <c r="C94" s="10">
         <v>0.7339</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A95" s="9">
+      <c r="A95" s="8">
         <v>8031002802</v>
       </c>
-      <c r="B95" s="10" t="s">
+      <c r="B95" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C95" s="11">
+      <c r="C95" s="10">
         <v>0.73380000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A96" s="9">
+      <c r="A96" s="8">
         <v>8031002602</v>
       </c>
-      <c r="B96" s="10" t="s">
+      <c r="B96" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C96" s="11">
+      <c r="C96" s="10">
         <v>0.72960000000000003</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A97" s="9">
+      <c r="A97" s="8">
         <v>8031001702</v>
       </c>
-      <c r="B97" s="10" t="s">
+      <c r="B97" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C97" s="11">
+      <c r="C97" s="10">
         <v>0.72140000000000004</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98" s="9">
+      <c r="A98" s="8">
         <v>8031002702</v>
       </c>
-      <c r="B98" s="10" t="s">
+      <c r="B98" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C98" s="11">
+      <c r="C98" s="10">
         <v>0.71750000000000003</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99" s="9">
+      <c r="A99" s="8">
         <v>8031002703</v>
       </c>
-      <c r="B99" s="10" t="s">
+      <c r="B99" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C99" s="11">
+      <c r="C99" s="10">
         <v>0.71050000000000002</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100" s="9">
+      <c r="A100" s="8">
         <v>8031002601</v>
       </c>
-      <c r="B100" s="10" t="s">
+      <c r="B100" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C100" s="11">
+      <c r="C100" s="10">
         <v>0.70420000000000005</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A101" s="9">
+      <c r="A101" s="8">
         <v>8031002803</v>
       </c>
-      <c r="B101" s="10" t="s">
+      <c r="B101" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C101" s="11">
+      <c r="C101" s="10">
         <v>0.66690000000000005</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A102" s="9">
+      <c r="A102" s="8">
         <v>8031003102</v>
       </c>
-      <c r="B102" s="10" t="s">
+      <c r="B102" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C102" s="11">
+      <c r="C102" s="10">
         <v>0.66159999999999997</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A103" s="9">
+      <c r="A103" s="8">
         <v>8005082100</v>
       </c>
-      <c r="B103" s="10" t="s">
+      <c r="B103" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="C103" s="11">
+      <c r="C103" s="10">
         <v>0.81979999999999997</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A104" s="9">
+      <c r="A104" s="8">
         <v>8005082000</v>
       </c>
-      <c r="B104" s="10" t="s">
+      <c r="B104" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="C104" s="11">
+      <c r="C104" s="10">
         <v>0.7802</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A105" s="9">
+      <c r="A105" s="8">
         <v>8031000201</v>
       </c>
-      <c r="B105" s="10" t="s">
+      <c r="B105" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="C105" s="11">
+      <c r="C105" s="10">
         <v>0.73270000000000002</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A106" s="9">
+      <c r="A106" s="8">
         <v>8005081800</v>
       </c>
-      <c r="B106" s="10" t="s">
+      <c r="B106" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="C106" s="11">
+      <c r="C106" s="10">
         <v>0.76039999999999996</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A107" s="9">
+      <c r="A107" s="8">
         <v>8031003202</v>
       </c>
-      <c r="B107" s="10" t="s">
+      <c r="B107" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C107" s="11">
+      <c r="C107" s="10">
         <v>0.8095</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A108" s="9">
+      <c r="A108" s="8">
         <v>8005081000</v>
       </c>
-      <c r="B108" s="10" t="s">
+      <c r="B108" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="C108" s="11">
+      <c r="C108" s="10">
         <v>0.76639999999999997</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A109" s="9">
+      <c r="A109" s="8">
         <v>8005081100</v>
       </c>
-      <c r="B109" s="10" t="s">
+      <c r="B109" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="C109" s="11">
+      <c r="C109" s="10">
         <v>0.80930000000000002</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A110" s="9">
+      <c r="A110" s="8">
         <v>8059010206</v>
       </c>
-      <c r="B110" s="10" t="s">
+      <c r="B110" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C110" s="11">
+      <c r="C110" s="10">
         <v>0.76500000000000001</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A111" s="9">
+      <c r="A111" s="8">
         <v>8001008536</v>
       </c>
-      <c r="B111" s="10" t="s">
+      <c r="B111" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C111" s="11">
+      <c r="C111" s="10">
         <v>0.85740000000000005</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A112" s="9">
+      <c r="A112" s="8">
         <v>8001008539</v>
       </c>
-      <c r="B112" s="10" t="s">
+      <c r="B112" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C112" s="11">
+      <c r="C112" s="10">
         <v>0.79990000000000006</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A113" s="9">
+      <c r="A113" s="8">
         <v>8001008901</v>
       </c>
-      <c r="B113" s="10" t="s">
+      <c r="B113" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C113" s="11">
+      <c r="C113" s="10">
         <v>0.77810000000000001</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A114" s="9">
+      <c r="A114" s="8">
         <v>8001008802</v>
       </c>
-      <c r="B114" s="10" t="s">
+      <c r="B114" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C114" s="11">
+      <c r="C114" s="10">
         <v>0.75429999999999997</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A115" s="9">
+      <c r="A115" s="8">
         <v>8001008706</v>
       </c>
-      <c r="B115" s="10" t="s">
+      <c r="B115" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C115" s="11">
+      <c r="C115" s="10">
         <v>0.75360000000000005</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A116" s="9">
+      <c r="A116" s="8">
         <v>8001008801</v>
       </c>
-      <c r="B116" s="10" t="s">
+      <c r="B116" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C116" s="11">
+      <c r="C116" s="10">
         <v>0.73109999999999997</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A117" s="9">
+      <c r="A117" s="8">
         <v>8001008709</v>
       </c>
-      <c r="B117" s="10" t="s">
+      <c r="B117" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C117" s="11">
+      <c r="C117" s="10">
         <v>0.72589999999999999</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A118" s="9">
+      <c r="A118" s="8">
         <v>8001008705</v>
       </c>
-      <c r="B118" s="10" t="s">
+      <c r="B118" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C118" s="11">
+      <c r="C118" s="10">
         <v>0.72150000000000003</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A119" s="9">
+      <c r="A119" s="8">
         <v>8031003902</v>
       </c>
-      <c r="B119" s="10" t="s">
+      <c r="B119" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C119" s="11">
+      <c r="C119" s="10">
         <v>0.77480000000000004</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A120" s="9">
+      <c r="A120" s="8">
         <v>8059011550</v>
       </c>
-      <c r="B120" s="10" t="s">
+      <c r="B120" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="C120" s="11">
+      <c r="C120" s="10">
         <v>0.75790000000000002</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A121" s="9">
+      <c r="A121" s="8">
         <v>8005083500</v>
       </c>
-      <c r="B121" s="10" t="s">
+      <c r="B121" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C121" s="11">
+      <c r="C121" s="10">
         <v>0.8236</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A122" s="9">
+      <c r="A122" s="8">
         <v>8059011202</v>
       </c>
-      <c r="B122" s="10" t="s">
+      <c r="B122" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C122" s="11">
+      <c r="C122" s="10">
         <v>0.77170000000000005</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A123" s="9">
+      <c r="A123" s="8">
         <v>8005080400</v>
       </c>
-      <c r="B123" s="10" t="s">
+      <c r="B123" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C123" s="11">
+      <c r="C123" s="10">
         <v>0.7802</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A124" s="9">
+      <c r="A124" s="8">
         <v>8005087100</v>
       </c>
-      <c r="B124" s="10" t="s">
+      <c r="B124" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="C124" s="11">
+      <c r="C124" s="10">
         <v>0.8266</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A125" s="9">
+      <c r="A125" s="8">
         <v>8005087000</v>
       </c>
-      <c r="B125" s="10" t="s">
+      <c r="B125" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="C125" s="11">
+      <c r="C125" s="10">
         <v>0.79300000000000004</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A126" s="9">
+      <c r="A126" s="8">
         <v>8005007400</v>
       </c>
-      <c r="B126" s="10" t="s">
+      <c r="B126" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C126" s="11">
+      <c r="C126" s="10">
         <v>0.74260000000000004</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A127" s="9">
+      <c r="A127" s="8">
         <v>8005007302</v>
       </c>
-      <c r="B127" s="10" t="s">
+      <c r="B127" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C127" s="11">
+      <c r="C127" s="10">
         <v>0.69889999999999997</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A128" s="9">
+      <c r="A128" s="8">
         <v>8005006858</v>
       </c>
-      <c r="B128" s="10" t="s">
+      <c r="B128" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C128" s="11">
+      <c r="C128" s="10">
         <v>0.82709999999999995</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A129" s="9">
+      <c r="A129" s="8">
         <v>8005086800</v>
       </c>
-      <c r="B129" s="10" t="s">
+      <c r="B129" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C129" s="11">
+      <c r="C129" s="10">
         <v>0.8155</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A130" s="9">
+      <c r="A130" s="8">
         <v>8031015300</v>
       </c>
-      <c r="B130" s="10" t="s">
+      <c r="B130" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C130" s="11">
+      <c r="C130" s="10">
         <v>0.81010000000000004</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A131" s="9">
+      <c r="A131" s="8">
         <v>8001009307</v>
       </c>
-      <c r="B131" s="10" t="s">
+      <c r="B131" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C131" s="11">
+      <c r="C131" s="10">
         <v>0.80940000000000001</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A132" s="9">
+      <c r="A132" s="8">
         <v>8001009502</v>
       </c>
-      <c r="B132" s="10" t="s">
+      <c r="B132" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C132" s="11">
+      <c r="C132" s="10">
         <v>0.80320000000000003</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A133" s="9">
+      <c r="A133" s="8">
         <v>8005087200</v>
       </c>
-      <c r="B133" s="10" t="s">
+      <c r="B133" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C133" s="11">
+      <c r="C133" s="10">
         <v>0.79979999999999996</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A134" s="9">
+      <c r="A134" s="8">
         <v>8001009553</v>
       </c>
-      <c r="B134" s="10" t="s">
+      <c r="B134" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C134" s="11">
+      <c r="C134" s="10">
         <v>0.79810000000000003</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A135" s="9">
+      <c r="A135" s="8">
         <v>8001009310</v>
       </c>
-      <c r="B135" s="10" t="s">
+      <c r="B135" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C135" s="11">
+      <c r="C135" s="10">
         <v>0.78739999999999999</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A136" s="9">
+      <c r="A136" s="8">
         <v>8001009306</v>
       </c>
-      <c r="B136" s="10" t="s">
+      <c r="B136" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C136" s="11">
+      <c r="C136" s="10">
         <v>0.78659999999999997</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A137" s="9">
+      <c r="A137" s="8">
         <v>8001009606</v>
       </c>
-      <c r="B137" s="10" t="s">
+      <c r="B137" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C137" s="11">
+      <c r="C137" s="10">
         <v>0.77039999999999997</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A138" s="9">
+      <c r="A138" s="8">
         <v>8001009001</v>
       </c>
-      <c r="B138" s="10" t="s">
+      <c r="B138" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C138" s="11">
+      <c r="C138" s="10">
         <v>0.76580000000000004</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A139" s="9">
+      <c r="A139" s="8">
         <v>8005087300</v>
       </c>
-      <c r="B139" s="10" t="s">
+      <c r="B139" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C139" s="11">
+      <c r="C139" s="10">
         <v>0.76459999999999995</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A140" s="9">
+      <c r="A140" s="8">
         <v>8001009752</v>
       </c>
-      <c r="B140" s="10" t="s">
+      <c r="B140" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C140" s="11">
+      <c r="C140" s="10">
         <v>0.76170000000000004</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A141" s="9">
+      <c r="A141" s="8">
         <v>8001009002</v>
       </c>
-      <c r="B141" s="10" t="s">
+      <c r="B141" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C141" s="11">
+      <c r="C141" s="10">
         <v>0.75170000000000003</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A142" s="9">
+      <c r="A142" s="8">
         <v>8001009751</v>
       </c>
-      <c r="B142" s="10" t="s">
+      <c r="B142" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C142" s="11">
+      <c r="C142" s="10">
         <v>0.74560000000000004</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A143" s="9">
+      <c r="A143" s="8">
         <v>8001009308</v>
       </c>
-      <c r="B143" s="10" t="s">
+      <c r="B143" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C143" s="11">
+      <c r="C143" s="10">
         <v>0.74199999999999999</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A144" s="9">
+      <c r="A144" s="8">
         <v>8031007006</v>
       </c>
-      <c r="B144" s="10" t="s">
+      <c r="B144" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C144" s="11">
+      <c r="C144" s="10">
         <v>0.73519999999999996</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A145" s="9">
+      <c r="A145" s="8">
         <v>8005086900</v>
       </c>
-      <c r="B145" s="10" t="s">
+      <c r="B145" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C145" s="11">
+      <c r="C145" s="10">
         <v>0.70860000000000001</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A146" s="9">
+      <c r="A146" s="8">
         <v>8001015000</v>
       </c>
-      <c r="B146" s="10" t="s">
+      <c r="B146" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C146" s="11">
+      <c r="C146" s="10">
         <v>0.69950000000000001</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A147" s="9">
+      <c r="A147" s="8">
         <v>8005004951</v>
       </c>
-      <c r="B147" s="10" t="s">
+      <c r="B147" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C147" s="11">
+      <c r="C147" s="10">
         <v>0.69210000000000005</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A148" s="9">
+      <c r="A148" s="8">
         <v>8001988700</v>
       </c>
-      <c r="B148" s="10" t="s">
+      <c r="B148" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C148" s="11"/>
+      <c r="C148" s="10"/>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A149" s="9">
+      <c r="A149" s="8">
         <v>8031980000</v>
       </c>
-      <c r="B149" s="10" t="s">
+      <c r="B149" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C149" s="11"/>
+      <c r="C149" s="10"/>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A150" s="9">
+      <c r="A150" s="8">
         <v>8059980000</v>
       </c>
-      <c r="B150" s="10" t="s">
+      <c r="B150" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C150" s="11"/>
+      <c r="C150" s="10"/>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A151" s="9">
+      <c r="A151" s="8">
         <v>8001009410</v>
       </c>
-      <c r="B151" s="10" t="s">
+      <c r="B151" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C151" s="11">
+      <c r="C151" s="10">
         <v>0.85499999999999998</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A152" s="9">
+      <c r="A152" s="8">
         <v>8001009411</v>
       </c>
-      <c r="B152" s="10" t="s">
+      <c r="B152" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C152" s="11">
+      <c r="C152" s="10">
         <v>0.84119999999999995</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A153" s="9">
+      <c r="A153" s="8">
         <v>8001009406</v>
       </c>
-      <c r="B153" s="10" t="s">
+      <c r="B153" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C153" s="11">
+      <c r="C153" s="10">
         <v>0.83760000000000001</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A154" s="9">
+      <c r="A154" s="8">
         <v>8059010100</v>
       </c>
-      <c r="B154" s="10" t="s">
+      <c r="B154" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C154" s="11">
+      <c r="C154" s="10">
         <v>0.78469999999999995</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A155" s="9">
+      <c r="A155" s="8">
         <v>8005080500</v>
       </c>
-      <c r="B155" s="10" t="s">
+      <c r="B155" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C155" s="11">
+      <c r="C155" s="10">
         <v>0.75960000000000005</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A156" s="9">
+      <c r="A156" s="8">
         <v>8031005200</v>
       </c>
-      <c r="B156" s="10" t="s">
+      <c r="B156" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C156" s="11">
+      <c r="C156" s="10">
         <v>0.85409999999999997</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A157" s="9">
+      <c r="A157" s="8">
         <v>8031007013</v>
       </c>
-      <c r="B157" s="10" t="s">
+      <c r="B157" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C157" s="11">
+      <c r="C157" s="10">
         <v>0.83260000000000001</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A158" s="9">
+      <c r="A158" s="8">
         <v>8031004405</v>
       </c>
-      <c r="B158" s="10" t="s">
+      <c r="B158" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C158" s="11">
+      <c r="C158" s="10">
         <v>0.80230000000000001</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A159" s="9">
+      <c r="A159" s="8">
         <v>8031005102</v>
       </c>
-      <c r="B159" s="10" t="s">
+      <c r="B159" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C159" s="11">
+      <c r="C159" s="10">
         <v>0.79910000000000003</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A160" s="9">
+      <c r="A160" s="8">
         <v>8031015500</v>
       </c>
-      <c r="B160" s="10" t="s">
+      <c r="B160" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C160" s="11">
+      <c r="C160" s="10">
         <v>0.79900000000000004</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A161" s="9">
+      <c r="A161" s="8">
         <v>8031004201</v>
       </c>
-      <c r="B161" s="10" t="s">
+      <c r="B161" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C161" s="11">
+      <c r="C161" s="10">
         <v>0.79559999999999997</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A162" s="9">
+      <c r="A162" s="8">
         <v>8031004104</v>
       </c>
-      <c r="B162" s="10" t="s">
+      <c r="B162" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C162" s="11">
+      <c r="C162" s="10">
         <v>0.79310000000000003</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A163" s="9">
+      <c r="A163" s="8">
         <v>8031005002</v>
       </c>
-      <c r="B163" s="10" t="s">
+      <c r="B163" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C163" s="11">
+      <c r="C163" s="10">
         <v>0.78639999999999999</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A164" s="9">
+      <c r="A164" s="8">
         <v>8031004304</v>
       </c>
-      <c r="B164" s="10" t="s">
+      <c r="B164" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C164" s="11">
+      <c r="C164" s="10">
         <v>0.78610000000000002</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A165" s="9">
+      <c r="A165" s="8">
         <v>8031004202</v>
       </c>
-      <c r="B165" s="10" t="s">
+      <c r="B165" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C165" s="11">
+      <c r="C165" s="10">
         <v>0.78339999999999999</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A166" s="9">
+      <c r="A166" s="8">
         <v>8031007037</v>
       </c>
-      <c r="B166" s="10" t="s">
+      <c r="B166" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C166" s="11">
+      <c r="C166" s="10">
         <v>0.78310000000000002</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A167" s="9">
+      <c r="A167" s="8">
         <v>8031004306</v>
       </c>
-      <c r="B167" s="10" t="s">
+      <c r="B167" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C167" s="11">
+      <c r="C167" s="10">
         <v>0.77580000000000005</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A168" s="9">
+      <c r="A168" s="8">
         <v>8031004303</v>
       </c>
-      <c r="B168" s="10" t="s">
+      <c r="B168" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C168" s="11">
+      <c r="C168" s="10">
         <v>0.76229999999999998</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A169" s="9">
+      <c r="A169" s="8">
         <v>8031004403</v>
       </c>
-      <c r="B169" s="10" t="s">
+      <c r="B169" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C169" s="11">
+      <c r="C169" s="10">
         <v>0.76139999999999997</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A170" s="9">
+      <c r="A170" s="8">
         <v>8031004301</v>
       </c>
-      <c r="B170" s="10" t="s">
+      <c r="B170" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C170" s="11">
+      <c r="C170" s="10">
         <v>0.75839999999999996</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A171" s="9">
+      <c r="A171" s="8">
         <v>8031005001</v>
       </c>
-      <c r="B171" s="10" t="s">
+      <c r="B171" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C171" s="11">
+      <c r="C171" s="10">
         <v>0.75480000000000003</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A172" s="9">
+      <c r="A172" s="8">
         <v>8031004103</v>
       </c>
-      <c r="B172" s="10" t="s">
+      <c r="B172" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C172" s="11">
+      <c r="C172" s="10">
         <v>0.754</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A173" s="9">
+      <c r="A173" s="8">
         <v>8031007089</v>
       </c>
-      <c r="B173" s="10" t="s">
+      <c r="B173" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C173" s="11">
+      <c r="C173" s="10">
         <v>0.75380000000000003</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A174" s="9">
+      <c r="A174" s="8">
         <v>8031007088</v>
       </c>
-      <c r="B174" s="10" t="s">
+      <c r="B174" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C174" s="11">
+      <c r="C174" s="10">
         <v>0.75329999999999997</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A175" s="9">
+      <c r="A175" s="8">
         <v>8031004102</v>
       </c>
-      <c r="B175" s="10" t="s">
+      <c r="B175" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C175" s="11">
+      <c r="C175" s="10">
         <v>0.74480000000000002</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A176" s="9">
+      <c r="A176" s="8">
         <v>8031003800</v>
       </c>
-      <c r="B176" s="10" t="s">
+      <c r="B176" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C176" s="11">
+      <c r="C176" s="10">
         <v>0.74050000000000005</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A177" s="9">
+      <c r="A177" s="8">
         <v>8031005104</v>
       </c>
-      <c r="B177" s="10" t="s">
+      <c r="B177" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C177" s="11">
+      <c r="C177" s="10">
         <v>0.73029999999999995</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A178" s="9">
+      <c r="A178" s="8">
         <v>8031004101</v>
       </c>
-      <c r="B178" s="10" t="s">
+      <c r="B178" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C178" s="11">
+      <c r="C178" s="10">
         <v>0.72409999999999997</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A179" s="9">
+      <c r="A179" s="8">
         <v>8031004404</v>
       </c>
-      <c r="B179" s="10" t="s">
+      <c r="B179" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C179" s="11">
+      <c r="C179" s="10">
         <v>0.72219999999999995</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A180" s="9">
+      <c r="A180" s="8">
         <v>8059011300</v>
       </c>
-      <c r="B180" s="10" t="s">
+      <c r="B180" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C180" s="11">
+      <c r="C180" s="10">
         <v>0.77380000000000004</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A181" s="9">
+      <c r="A181" s="8">
         <v>8059011402</v>
       </c>
-      <c r="B181" s="10" t="s">
+      <c r="B181" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="C181" s="11">
+      <c r="C181" s="10">
         <v>0.74650000000000005</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A182" s="9">
+      <c r="A182" s="8">
         <v>8059011401</v>
       </c>
-      <c r="B182" s="10" t="s">
+      <c r="B182" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="C182" s="11">
+      <c r="C182" s="10">
         <v>0.71719999999999995</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A183" s="9">
+      <c r="A183" s="8">
         <v>8059010902</v>
       </c>
-      <c r="B183" s="10" t="s">
+      <c r="B183" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="C183" s="11">
+      <c r="C183" s="10">
         <v>0.79669999999999996</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A184" s="9">
+      <c r="A184" s="8">
         <v>8059011100</v>
       </c>
-      <c r="B184" s="10" t="s">
+      <c r="B184" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="C184" s="11">
+      <c r="C184" s="10">
         <v>0.75329999999999997</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A185" s="9">
+      <c r="A185" s="8">
         <v>8005006400</v>
       </c>
-      <c r="B185" s="10" t="s">
+      <c r="B185" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C185" s="11">
+      <c r="C185" s="10">
         <v>0.82989999999999997</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A186" s="9">
+      <c r="A186" s="8">
         <v>8005006100</v>
       </c>
-      <c r="B186" s="10" t="s">
+      <c r="B186" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C186" s="11">
+      <c r="C186" s="10">
         <v>0.82</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A187" s="9">
+      <c r="A187" s="8">
         <v>8005005952</v>
       </c>
-      <c r="B187" s="10" t="s">
+      <c r="B187" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C187" s="11">
+      <c r="C187" s="10">
         <v>0.80349999999999999</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A188" s="9">
+      <c r="A188" s="8">
         <v>8005005800</v>
       </c>
-      <c r="B188" s="10" t="s">
+      <c r="B188" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C188" s="11">
+      <c r="C188" s="10">
         <v>0.80089999999999995</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A189" s="9">
+      <c r="A189" s="8">
         <v>8005006808</v>
       </c>
-      <c r="B189" s="10" t="s">
+      <c r="B189" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C189" s="11">
+      <c r="C189" s="10">
         <v>0.79310000000000003</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A190" s="9">
+      <c r="A190" s="8">
         <v>8005005553</v>
       </c>
-      <c r="B190" s="10" t="s">
+      <c r="B190" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C190" s="11">
+      <c r="C190" s="10">
         <v>0.78759999999999997</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A191" s="9">
+      <c r="A191" s="8">
         <v>8005006705</v>
       </c>
-      <c r="B191" s="10" t="s">
+      <c r="B191" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C191" s="11">
+      <c r="C191" s="10">
         <v>0.77959999999999996</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A192" s="9">
+      <c r="A192" s="8">
         <v>8005005552</v>
       </c>
-      <c r="B192" s="10" t="s">
+      <c r="B192" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C192" s="11">
+      <c r="C192" s="10">
         <v>0.77669999999999995</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A193" s="9">
+      <c r="A193" s="8">
         <v>8005006200</v>
       </c>
-      <c r="B193" s="10" t="s">
+      <c r="B193" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C193" s="11">
+      <c r="C193" s="10">
         <v>0.77059999999999995</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A194" s="9">
+      <c r="A194" s="8">
         <v>8005006300</v>
       </c>
-      <c r="B194" s="10" t="s">
+      <c r="B194" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C194" s="11">
+      <c r="C194" s="10">
         <v>0.76690000000000003</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A195" s="9">
+      <c r="A195" s="8">
         <v>8005005951</v>
       </c>
-      <c r="B195" s="10" t="s">
+      <c r="B195" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C195" s="11">
+      <c r="C195" s="10">
         <v>0.76500000000000001</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A196" s="9">
+      <c r="A196" s="8">
         <v>8005006000</v>
       </c>
-      <c r="B196" s="10" t="s">
+      <c r="B196" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C196" s="11">
+      <c r="C196" s="10">
         <v>0.76419999999999999</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A197" s="9">
+      <c r="A197" s="8">
         <v>8005006704</v>
       </c>
-      <c r="B197" s="10" t="s">
+      <c r="B197" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C197" s="11">
+      <c r="C197" s="10">
         <v>0.75509999999999999</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A198" s="9">
+      <c r="A198" s="8">
         <v>8005005700</v>
       </c>
-      <c r="B198" s="10" t="s">
+      <c r="B198" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C198" s="11">
+      <c r="C198" s="10">
         <v>0.74160000000000004</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A199" s="9">
+      <c r="A199" s="8">
         <v>8005080100</v>
       </c>
-      <c r="B199" s="10" t="s">
+      <c r="B199" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="C199" s="11">
+      <c r="C199" s="10">
         <v>0.78480000000000005</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A200" s="9">
+      <c r="A200" s="8">
         <v>8005080000</v>
       </c>
-      <c r="B200" s="10" t="s">
+      <c r="B200" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="C200" s="11">
+      <c r="C200" s="10">
         <v>0.76239999999999997</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A201" s="9">
+      <c r="A201" s="8">
         <v>8059009832</v>
       </c>
-      <c r="B201" s="10" t="s">
+      <c r="B201" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="C201" s="11">
+      <c r="C201" s="10">
         <v>0.83409999999999995</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A202" s="9">
+      <c r="A202" s="8">
         <v>8001009321</v>
       </c>
-      <c r="B202" s="10" t="s">
+      <c r="B202" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="C202" s="11">
+      <c r="C202" s="10">
         <v>0.79500000000000004</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A203" s="9">
+      <c r="A203" s="8">
         <v>8001009319</v>
       </c>
-      <c r="B203" s="10" t="s">
+      <c r="B203" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="C203" s="11">
+      <c r="C203" s="10">
         <v>0.74980000000000002</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A204" s="9">
+      <c r="A204" s="8">
         <v>8001008100</v>
       </c>
-      <c r="B204" s="10" t="s">
+      <c r="B204" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="C204" s="11">
+      <c r="C204" s="10">
         <v>0.73480000000000001</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A205" s="9">
+      <c r="A205" s="8">
         <v>8031002403</v>
       </c>
-      <c r="B205" s="10" t="s">
+      <c r="B205" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="C205" s="11">
+      <c r="C205" s="10">
         <v>0.69110000000000005</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A206" s="9">
+      <c r="A206" s="8">
         <v>8059012042</v>
       </c>
-      <c r="B206" s="10" t="s">
+      <c r="B206" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C206" s="11">
+      <c r="C206" s="10">
         <v>0.81369999999999998</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A207" s="9">
+      <c r="A207" s="8">
         <v>8059011711</v>
       </c>
-      <c r="B207" s="10" t="s">
+      <c r="B207" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="C207" s="11">
+      <c r="C207" s="10">
         <v>0.80559999999999998</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A208" s="9">
+      <c r="A208" s="8">
         <v>8059011723</v>
       </c>
-      <c r="B208" s="10" t="s">
+      <c r="B208" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="C208" s="11">
+      <c r="C208" s="10">
         <v>0.76270000000000004</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A209" s="9">
+      <c r="A209" s="8">
         <v>8031005503</v>
       </c>
-      <c r="B209" s="10" t="s">
+      <c r="B209" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C209" s="11">
+      <c r="C209" s="10">
         <v>0.77149999999999996</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A210" s="9">
+      <c r="A210" s="8">
         <v>8031005502</v>
       </c>
-      <c r="B210" s="10" t="s">
+      <c r="B210" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C210" s="11">
+      <c r="C210" s="10">
         <v>0.75470000000000004</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A211" s="9">
+      <c r="A211" s="8">
         <v>8059012039</v>
       </c>
-      <c r="B211" s="10" t="s">
+      <c r="B211" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="C211" s="11">
+      <c r="C211" s="10">
         <v>0.78879999999999995</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A212" s="9">
+      <c r="A212" s="8">
         <v>8059010403</v>
       </c>
-      <c r="B212" s="10" t="s">
+      <c r="B212" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="C212" s="11">
+      <c r="C212" s="10">
         <v>0.76380000000000003</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A213" s="9">
+      <c r="A213" s="8">
         <v>8031008388</v>
       </c>
-      <c r="B213" s="10" t="s">
+      <c r="B213" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C213" s="11">
+      <c r="C213" s="10">
         <v>0.77300000000000002</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A214" s="9">
+      <c r="A214" s="8">
         <v>8059009845</v>
       </c>
-      <c r="B214" s="10" t="s">
+      <c r="B214" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C214" s="11">
+      <c r="C214" s="10">
         <v>0.82040000000000002</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A215" s="9">
+      <c r="A215" s="8">
         <v>8005004952</v>
       </c>
-      <c r="B215" s="10" t="s">
+      <c r="B215" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="C215" s="11">
+      <c r="C215" s="10">
         <v>0.76670000000000005</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A216" s="9">
+      <c r="A216" s="8">
         <v>8059011708</v>
       </c>
-      <c r="B216" s="10" t="s">
+      <c r="B216" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C216" s="11">
+      <c r="C216" s="10">
         <v>0.76680000000000004</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A217" s="9">
+      <c r="A217" s="8">
         <v>8031001500</v>
       </c>
-      <c r="B217" s="10" t="s">
+      <c r="B217" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="C217" s="11">
+      <c r="C217" s="10">
         <v>0.72070000000000001</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A218" s="9">
+      <c r="A218" s="8">
         <v>8059009900</v>
       </c>
-      <c r="B218" s="10" t="s">
+      <c r="B218" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C218" s="11">
+      <c r="C218" s="10">
         <v>0.80210000000000004</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A219" s="9">
+      <c r="A219" s="8">
         <v>8059009843</v>
       </c>
-      <c r="B219" s="10" t="s">
+      <c r="B219" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C219" s="11">
+      <c r="C219" s="10">
         <v>0.78610000000000002</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A220" s="9">
+      <c r="A220" s="8">
         <v>8059009842</v>
       </c>
-      <c r="B220" s="10" t="s">
+      <c r="B220" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C220" s="11">
+      <c r="C220" s="10">
         <v>0.77170000000000005</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A221" s="9">
+      <c r="A221" s="8">
         <v>8031006901</v>
       </c>
-      <c r="B221" s="10" t="s">
+      <c r="B221" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="C221" s="11">
+      <c r="C221" s="10">
         <v>0.77910000000000001</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A222" s="9">
+      <c r="A222" s="8">
         <v>8059012054</v>
       </c>
-      <c r="B222" s="10" t="s">
+      <c r="B222" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C222" s="11">
+      <c r="C222" s="10">
         <v>0.79510000000000003</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A223" s="9">
+      <c r="A223" s="8">
         <v>8001008534</v>
       </c>
-      <c r="B223" s="10" t="s">
+      <c r="B223" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="C223" s="11">
+      <c r="C223" s="10">
         <v>0.77629999999999999</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A224" s="9">
+      <c r="A224" s="8">
         <v>8031012010</v>
       </c>
-      <c r="B224" s="10" t="s">
+      <c r="B224" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C224" s="11">
+      <c r="C224" s="10">
         <v>0.77559999999999996</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A225" s="9">
+      <c r="A225" s="8">
         <v>8059012050</v>
       </c>
-      <c r="B225" s="10" t="s">
+      <c r="B225" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C225" s="11">
+      <c r="C225" s="10">
         <v>0.73929999999999996</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A226" s="9">
+      <c r="A226" s="8">
         <v>8059011726</v>
       </c>
-      <c r="B226" s="10" t="s">
+      <c r="B226" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C226" s="11">
+      <c r="C226" s="10">
         <v>0.82010000000000005</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A227" s="9">
+      <c r="A227" s="8">
         <v>8059011724</v>
       </c>
-      <c r="B227" s="10" t="s">
+      <c r="B227" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C227" s="11">
+      <c r="C227" s="10">
         <v>0.80469999999999997</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A228" s="9">
+      <c r="A228" s="8">
         <v>8059011712</v>
       </c>
-      <c r="B228" s="10" t="s">
+      <c r="B228" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C228" s="11">
+      <c r="C228" s="10">
         <v>0.79249999999999998</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A229" s="9">
+      <c r="A229" s="8">
         <v>8059011725</v>
       </c>
-      <c r="B229" s="10" t="s">
+      <c r="B229" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C229" s="11">
+      <c r="C229" s="10">
         <v>0.77529999999999999</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A230" s="9">
+      <c r="A230" s="8">
         <v>8031008389</v>
       </c>
-      <c r="B230" s="10" t="s">
+      <c r="B230" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="C230" s="11">
+      <c r="C230" s="10">
         <v>0.83840000000000003</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A231" s="9">
+      <c r="A231" s="8">
         <v>8031008390</v>
       </c>
-      <c r="B231" s="10" t="s">
+      <c r="B231" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="C231" s="11">
+      <c r="C231" s="10">
         <v>0.7591</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A232" s="9">
+      <c r="A232" s="8">
         <v>8059011803</v>
       </c>
-      <c r="B232" s="10" t="s">
+      <c r="B232" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="C232" s="11">
+      <c r="C232" s="10">
         <v>0.78339999999999999</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A233" s="9">
+      <c r="A233" s="8">
         <v>8005006855</v>
       </c>
-      <c r="B233" s="10" t="s">
+      <c r="B233" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C233" s="11">
+      <c r="C233" s="10">
         <v>0.84540000000000004</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A234" s="9">
+      <c r="A234" s="8">
         <v>8005005636</v>
       </c>
-      <c r="B234" s="10" t="s">
+      <c r="B234" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C234" s="11">
+      <c r="C234" s="10">
         <v>0.83040000000000003</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A235" s="9">
+      <c r="A235" s="8">
         <v>8005006857</v>
       </c>
-      <c r="B235" s="10" t="s">
+      <c r="B235" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C235" s="11">
+      <c r="C235" s="10">
         <v>0.82699999999999996</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A236" s="9">
+      <c r="A236" s="8">
         <v>8005006854</v>
       </c>
-      <c r="B236" s="10" t="s">
+      <c r="B236" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C236" s="11">
+      <c r="C236" s="10">
         <v>0.81040000000000001</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A237" s="9">
+      <c r="A237" s="8">
         <v>8005006712</v>
       </c>
-      <c r="B237" s="10" t="s">
+      <c r="B237" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C237" s="11">
+      <c r="C237" s="10">
         <v>0.76459999999999995</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A238" s="9">
+      <c r="A238" s="8">
         <v>8005005612</v>
       </c>
-      <c r="B238" s="10" t="s">
+      <c r="B238" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C238" s="11">
+      <c r="C238" s="10">
         <v>0.75819999999999999</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A239" s="9">
+      <c r="A239" s="8">
         <v>8031004302</v>
       </c>
-      <c r="B239" s="10" t="s">
+      <c r="B239" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="C239" s="11">
+      <c r="C239" s="10">
         <v>0.77859999999999996</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A240" s="9">
+      <c r="A240" s="8">
         <v>8031004603</v>
       </c>
-      <c r="B240" s="10" t="s">
+      <c r="B240" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="C240" s="11">
+      <c r="C240" s="10">
         <v>0.78210000000000002</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A241" s="9">
+      <c r="A241" s="8">
         <v>8005081400</v>
       </c>
-      <c r="B241" s="10" t="s">
+      <c r="B241" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C241" s="11">
+      <c r="C241" s="10">
         <v>0.78879999999999995</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A242" s="9">
+      <c r="A242" s="8">
         <v>8005081500</v>
       </c>
-      <c r="B242" s="10" t="s">
+      <c r="B242" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C242" s="11">
+      <c r="C242" s="10">
         <v>0.77880000000000005</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A243" s="9">
+      <c r="A243" s="8">
         <v>8005080600</v>
       </c>
-      <c r="B243" s="10" t="s">
+      <c r="B243" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="C243" s="11">
+      <c r="C243" s="10">
         <v>0.753</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A244" s="9">
+      <c r="A244" s="8">
         <v>8001008537</v>
       </c>
-      <c r="B244" s="10" t="s">
+      <c r="B244" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C244" s="11">
+      <c r="C244" s="10">
         <v>0.78790000000000004</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A245" s="9">
+      <c r="A245" s="8">
         <v>8001008535</v>
       </c>
-      <c r="B245" s="10" t="s">
+      <c r="B245" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C245" s="11">
+      <c r="C245" s="10">
         <v>0.6663</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A246" s="9">
+      <c r="A246" s="8">
         <v>8005007703</v>
       </c>
-      <c r="B246" s="10" t="s">
+      <c r="B246" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="C246" s="11">
+      <c r="C246" s="10">
         <v>0.77729999999999999</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A247" s="9">
+      <c r="A247" s="8">
         <v>8031001102</v>
       </c>
-      <c r="B247" s="10" t="s">
+      <c r="B247" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="C247" s="11">
+      <c r="C247" s="10">
         <v>0.75049999999999994</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A248" s="9">
+      <c r="A248" s="8">
         <v>8031000402</v>
       </c>
-      <c r="B248" s="10" t="s">
+      <c r="B248" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="C248" s="11">
+      <c r="C248" s="10">
         <v>0.72330000000000005</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A249" s="9">
+      <c r="A249" s="8">
         <v>8059010208</v>
       </c>
-      <c r="B249" s="10" t="s">
+      <c r="B249" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C249" s="11">
+      <c r="C249" s="10">
         <v>0.80469999999999997</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A250" s="9">
+      <c r="A250" s="8">
         <v>8005007704</v>
       </c>
-      <c r="B250" s="10" t="s">
+      <c r="B250" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="C250" s="11">
+      <c r="C250" s="10">
         <v>0.76</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A251" s="9">
+      <c r="A251" s="8">
         <v>8005082300</v>
       </c>
-      <c r="B251" s="10" t="s">
+      <c r="B251" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="C251" s="11">
+      <c r="C251" s="10">
         <v>0.78969999999999996</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A252" s="9">
+      <c r="A252" s="8">
         <v>8059010405</v>
       </c>
-      <c r="B252" s="10" t="s">
+      <c r="B252" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="C252" s="11">
+      <c r="C252" s="10">
         <v>0.77400000000000002</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A253" s="9">
+      <c r="A253" s="8">
         <v>8059010402</v>
       </c>
-      <c r="B253" s="10" t="s">
+      <c r="B253" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="C253" s="11">
+      <c r="C253" s="10">
         <v>0.75049999999999994</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A254" s="9">
+      <c r="A254" s="8">
         <v>8059012027</v>
       </c>
-      <c r="B254" s="10" t="s">
+      <c r="B254" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C254" s="11">
+      <c r="C254" s="10">
         <v>0.76900000000000002</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A255" s="9">
+      <c r="A255" s="8">
         <v>8059980400</v>
       </c>
-      <c r="B255" s="10" t="s">
+      <c r="B255" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="C255" s="11"/>
+      <c r="C255" s="10"/>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A256" s="9">
+      <c r="A256" s="8">
         <v>8031000600</v>
       </c>
-      <c r="B256" s="10" t="s">
+      <c r="B256" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="C256" s="11">
+      <c r="C256" s="10">
         <v>0.68620000000000003</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A257" s="9">
+      <c r="A257" s="8">
         <v>8005007500</v>
       </c>
-      <c r="B257" s="10" t="s">
+      <c r="B257" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="C257" s="11">
+      <c r="C257" s="10">
         <v>0.76449999999999996</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A258" s="9">
+      <c r="A258" s="8">
         <v>8005007600</v>
       </c>
-      <c r="B258" s="10" t="s">
+      <c r="B258" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="C258" s="11">
+      <c r="C258" s="10">
         <v>0.76390000000000002</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A259" s="9">
+      <c r="A259" s="8">
         <v>8005007301</v>
       </c>
-      <c r="B259" s="10" t="s">
+      <c r="B259" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="C259" s="11">
+      <c r="C259" s="10">
         <v>0.74570000000000003</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A260" s="9">
+      <c r="A260" s="8">
         <v>8059011710</v>
       </c>
-      <c r="B260" s="10" t="s">
+      <c r="B260" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C260" s="11">
+      <c r="C260" s="10">
         <v>0.85229999999999995</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A261" s="9">
+      <c r="A261" s="8">
         <v>8059011702</v>
       </c>
-      <c r="B261" s="10" t="s">
+      <c r="B261" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C261" s="11">
+      <c r="C261" s="10">
         <v>0.79349999999999998</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A262" s="9">
+      <c r="A262" s="8">
         <v>8059011709</v>
       </c>
-      <c r="B262" s="10" t="s">
+      <c r="B262" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C262" s="11">
+      <c r="C262" s="10">
         <v>0.77759999999999996</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A263" s="9">
+      <c r="A263" s="8">
         <v>8059009828</v>
       </c>
-      <c r="B263" s="10" t="s">
+      <c r="B263" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C263" s="11">
+      <c r="C263" s="10">
         <v>0.83109999999999995</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A264" s="9">
+      <c r="A264" s="8">
         <v>8013060800</v>
       </c>
-      <c r="B264" s="10" t="s">
+      <c r="B264" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="C264" s="11">
+      <c r="C264" s="10">
         <v>0.73719999999999997</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A265" s="9">
+      <c r="A265" s="8">
         <v>8059009833</v>
       </c>
-      <c r="B265" s="10" t="s">
+      <c r="B265" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C265" s="11">
+      <c r="C265" s="10">
         <v>0.81879999999999997</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A266" s="9">
+      <c r="A266" s="8">
         <v>8059011904</v>
       </c>
-      <c r="B266" s="10" t="s">
+      <c r="B266" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C266" s="11">
+      <c r="C266" s="10">
         <v>0.84119999999999995</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A267" s="9">
+      <c r="A267" s="8">
         <v>8059011720</v>
       </c>
-      <c r="B267" s="10" t="s">
+      <c r="B267" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C267" s="11">
+      <c r="C267" s="10">
         <v>0.79120000000000001</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A268" s="9">
+      <c r="A268" s="8">
         <v>8059015900</v>
       </c>
-      <c r="B268" s="10" t="s">
+      <c r="B268" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C268" s="11">
+      <c r="C268" s="10">
         <v>0.79090000000000005</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A269" s="9">
+      <c r="A269" s="8">
         <v>8059009849</v>
       </c>
-      <c r="B269" s="10" t="s">
+      <c r="B269" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C269" s="11">
+      <c r="C269" s="10">
         <v>0.77769999999999995</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A270" s="9">
+      <c r="A270" s="8">
         <v>8059010213</v>
       </c>
-      <c r="B270" s="10" t="s">
+      <c r="B270" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="C270" s="11">
+      <c r="C270" s="10">
         <v>0.78149999999999997</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A271" s="9">
+      <c r="A271" s="8">
         <v>8059010212</v>
       </c>
-      <c r="B271" s="10" t="s">
+      <c r="B271" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="C271" s="11">
+      <c r="C271" s="10">
         <v>0.78010000000000002</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A272" s="9">
+      <c r="A272" s="8">
         <v>8005081900</v>
       </c>
-      <c r="B272" s="10" t="s">
+      <c r="B272" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="C272" s="11">
+      <c r="C272" s="10">
         <v>0.7641</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A273" s="9">
+      <c r="A273" s="8">
         <v>8059011804</v>
       </c>
-      <c r="B273" s="10" t="s">
+      <c r="B273" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C273" s="11">
+      <c r="C273" s="10">
         <v>0.80569999999999997</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A274" s="9">
+      <c r="A274" s="8">
         <v>8005006501</v>
       </c>
-      <c r="B274" s="10" t="s">
+      <c r="B274" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C274" s="11">
+      <c r="C274" s="10">
         <v>0.83079999999999998</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A275" s="9">
+      <c r="A275" s="8">
         <v>8005006502</v>
       </c>
-      <c r="B275" s="10" t="s">
+      <c r="B275" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C275" s="11">
+      <c r="C275" s="10">
         <v>0.82140000000000002</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A276" s="9">
+      <c r="A276" s="8">
         <v>8059012041</v>
       </c>
-      <c r="B276" s="10" t="s">
+      <c r="B276" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C276" s="11">
+      <c r="C276" s="10">
         <v>0.8075</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A277" s="9">
+      <c r="A277" s="8">
         <v>8005005620</v>
       </c>
-      <c r="B277" s="10" t="s">
+      <c r="B277" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C277" s="11">
+      <c r="C277" s="10">
         <v>0.80149999999999999</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A278" s="9">
+      <c r="A278" s="8">
         <v>8005005619</v>
       </c>
-      <c r="B278" s="10" t="s">
+      <c r="B278" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C278" s="11">
+      <c r="C278" s="10">
         <v>0.77839999999999998</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A279" s="9">
+      <c r="A279" s="8">
         <v>8005006601</v>
       </c>
-      <c r="B279" s="10" t="s">
+      <c r="B279" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C279" s="11">
+      <c r="C279" s="10">
         <v>0.77170000000000005</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A280" s="9">
+      <c r="A280" s="8">
         <v>8005082900</v>
       </c>
-      <c r="B280" s="10" t="s">
+      <c r="B280" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="C280" s="11">
+      <c r="C280" s="10">
         <v>0.80600000000000005</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A281" s="9">
+      <c r="A281" s="8">
         <v>8013061300</v>
       </c>
-      <c r="B281" s="10" t="s">
+      <c r="B281" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C281" s="11">
+      <c r="C281" s="10">
         <v>0.84670000000000001</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A282" s="9">
+      <c r="A282" s="8">
         <v>8013060700</v>
       </c>
-      <c r="B282" s="10" t="s">
+      <c r="B282" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C282" s="11">
+      <c r="C282" s="10">
         <v>0.81669999999999998</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A283" s="9">
+      <c r="A283" s="8">
         <v>8005007702</v>
       </c>
-      <c r="B283" s="10" t="s">
+      <c r="B283" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="C283" s="11">
+      <c r="C283" s="10">
         <v>0.78080000000000005</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A284" s="9">
+      <c r="A284" s="8">
         <v>8031004602</v>
       </c>
-      <c r="B284" s="10" t="s">
+      <c r="B284" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="C284" s="11">
+      <c r="C284" s="10">
         <v>0.7258</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A285" s="9">
+      <c r="A285" s="8">
         <v>8031012014</v>
       </c>
-      <c r="B285" s="10" t="s">
+      <c r="B285" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C285" s="11">
+      <c r="C285" s="10">
         <v>0.82110000000000005</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A286" s="9">
+      <c r="A286" s="8">
         <v>8005083800</v>
       </c>
-      <c r="B286" s="10" t="s">
+      <c r="B286" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C286" s="11">
+      <c r="C286" s="10">
         <v>0.81989999999999996</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A287" s="9">
+      <c r="A287" s="8">
         <v>8005083900</v>
       </c>
-      <c r="B287" s="10" t="s">
+      <c r="B287" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C287" s="11">
+      <c r="C287" s="10">
         <v>0.79930000000000001</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A288" s="9">
+      <c r="A288" s="8">
         <v>8059009835</v>
       </c>
-      <c r="B288" s="10" t="s">
+      <c r="B288" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C288" s="11">
+      <c r="C288" s="10">
         <v>0.82340000000000002</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A289" s="9">
+      <c r="A289" s="8">
         <v>8005082500</v>
       </c>
-      <c r="B289" s="10" t="s">
+      <c r="B289" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C289" s="11">
+      <c r="C289" s="10">
         <v>0.85019999999999996</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A290" s="9">
+      <c r="A290" s="8">
         <v>8005081600</v>
       </c>
-      <c r="B290" s="10" t="s">
+      <c r="B290" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C290" s="11">
+      <c r="C290" s="10">
         <v>0.80769999999999997</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A291" s="9">
+      <c r="A291" s="8">
         <v>8059009838</v>
       </c>
-      <c r="B291" s="10" t="s">
+      <c r="B291" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C291" s="11">
+      <c r="C291" s="10">
         <v>0.79179999999999995</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A292" s="9">
+      <c r="A292" s="8">
         <v>8005084000</v>
       </c>
-      <c r="B292" s="10" t="s">
+      <c r="B292" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C292" s="11">
+      <c r="C292" s="10">
         <v>0.83819999999999995</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A293" s="9">
+      <c r="A293" s="8">
         <v>8005084700</v>
       </c>
-      <c r="B293" s="10" t="s">
+      <c r="B293" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C293" s="11">
+      <c r="C293" s="10">
         <v>0.78200000000000003</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A294" s="9">
+      <c r="A294" s="8">
         <v>8031008312</v>
       </c>
-      <c r="B294" s="10" t="s">
+      <c r="B294" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="C294" s="11">
+      <c r="C294" s="10">
         <v>0.76629999999999998</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A295" s="9">
+      <c r="A295" s="8">
         <v>8031008304</v>
       </c>
-      <c r="B295" s="10" t="s">
+      <c r="B295" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="C295" s="11">
+      <c r="C295" s="10">
         <v>0.74929999999999997</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A296" s="9">
+      <c r="A296" s="8">
         <v>8031008386</v>
       </c>
-      <c r="B296" s="10" t="s">
+      <c r="B296" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="C296" s="11">
+      <c r="C296" s="10">
         <v>0.74680000000000002</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A297" s="9">
+      <c r="A297" s="8">
         <v>8031008305</v>
       </c>
-      <c r="B297" s="10" t="s">
+      <c r="B297" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="C297" s="11">
+      <c r="C297" s="10">
         <v>0.73550000000000004</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A298" s="9">
+      <c r="A298" s="8">
         <v>8031980100</v>
       </c>
-      <c r="B298" s="10" t="s">
+      <c r="B298" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="C298" s="11"/>
+      <c r="C298" s="10"/>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A299" s="9">
+      <c r="A299" s="8">
         <v>8001008200</v>
       </c>
-      <c r="B299" s="10" t="s">
+      <c r="B299" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="C299" s="11">
+      <c r="C299" s="10">
         <v>0.79249999999999998</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A300" s="9">
+      <c r="A300" s="8">
         <v>8059012034</v>
       </c>
-      <c r="B300" s="10" t="s">
+      <c r="B300" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C300" s="11">
+      <c r="C300" s="10">
         <v>0.78839999999999999</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A301" s="9">
+      <c r="A301" s="8">
         <v>8059011000</v>
       </c>
-      <c r="B301" s="10" t="s">
+      <c r="B301" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="C301" s="11">
+      <c r="C301" s="10">
         <v>0.77449999999999997</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A302" s="9">
+      <c r="A302" s="8">
         <v>8001008309</v>
       </c>
-      <c r="B302" s="10" t="s">
+      <c r="B302" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="C302" s="11">
+      <c r="C302" s="10">
         <v>0.75800000000000001</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A303" s="9">
+      <c r="A303" s="8">
         <v>8059011601</v>
       </c>
-      <c r="B303" s="10" t="s">
+      <c r="B303" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="C303" s="11">
+      <c r="C303" s="10">
         <v>0.80820000000000003</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A304" s="9">
+      <c r="A304" s="8">
         <v>8059011602</v>
       </c>
-      <c r="B304" s="10" t="s">
+      <c r="B304" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="C304" s="11">
+      <c r="C304" s="10">
         <v>0.76849999999999996</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A305" s="9">
+      <c r="A305" s="8">
         <v>8001007801</v>
       </c>
-      <c r="B305" s="10" t="s">
+      <c r="B305" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="C305" s="11">
+      <c r="C305" s="10">
         <v>0.7056</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A306" s="9">
+      <c r="A306" s="8">
         <v>8001007802</v>
       </c>
-      <c r="B306" s="10" t="s">
+      <c r="B306" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="C306" s="11">
+      <c r="C306" s="10">
         <v>0.70079999999999998</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A307" s="9">
+      <c r="A307" s="8">
         <v>8059060300</v>
       </c>
-      <c r="B307" s="10" t="s">
+      <c r="B307" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C307" s="11">
+      <c r="C307" s="10">
         <v>0.85570000000000002</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A308" s="9">
+      <c r="A308" s="8">
         <v>8059060400</v>
       </c>
-      <c r="B308" s="10" t="s">
+      <c r="B308" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C308" s="11">
+      <c r="C308" s="10">
         <v>0.82010000000000005</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A309" s="9">
+      <c r="A309" s="8">
         <v>8001009326</v>
       </c>
-      <c r="B309" s="10" t="s">
+      <c r="B309" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C309" s="11">
+      <c r="C309" s="10">
         <v>0.83850000000000002</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A310" s="9">
+      <c r="A310" s="8">
         <v>8001009409</v>
       </c>
-      <c r="B310" s="10" t="s">
+      <c r="B310" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C310" s="11">
+      <c r="C310" s="10">
         <v>0.82299999999999995</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A311" s="9">
+      <c r="A311" s="8">
         <v>8001009325</v>
       </c>
-      <c r="B311" s="10" t="s">
+      <c r="B311" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C311" s="11">
+      <c r="C311" s="10">
         <v>0.8196</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A312" s="9">
+      <c r="A312" s="8">
         <v>8001009408</v>
       </c>
-      <c r="B312" s="10" t="s">
+      <c r="B312" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C312" s="11">
+      <c r="C312" s="10">
         <v>0.7964</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A313" s="9">
+      <c r="A313" s="8">
         <v>8001060200</v>
       </c>
-      <c r="B313" s="10" t="s">
+      <c r="B313" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="C313" s="11">
+      <c r="C313" s="10">
         <v>0.71940000000000004</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A314" s="9">
+      <c r="A314" s="8">
         <v>8001060100</v>
       </c>
-      <c r="B314" s="10" t="s">
+      <c r="B314" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="C314" s="11">
+      <c r="C314" s="10">
         <v>0.78639999999999999</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A315" s="9">
+      <c r="A315" s="8">
         <v>8031003603</v>
       </c>
-      <c r="B315" s="10" t="s">
+      <c r="B315" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="C315" s="11">
+      <c r="C315" s="10">
         <v>0.78339999999999999</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A316" s="9">
+      <c r="A316" s="8">
         <v>8031002300</v>
       </c>
-      <c r="B316" s="10" t="s">
+      <c r="B316" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="C316" s="11">
+      <c r="C316" s="10">
         <v>0.7641</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A317" s="9">
+      <c r="A317" s="8">
         <v>8031003601</v>
       </c>
-      <c r="B317" s="10" t="s">
+      <c r="B317" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="C317" s="11">
+      <c r="C317" s="10">
         <v>0.75529999999999997</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A318" s="9">
+      <c r="A318" s="8">
         <v>8031003602</v>
       </c>
-      <c r="B318" s="10" t="s">
+      <c r="B318" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="C318" s="11">
+      <c r="C318" s="10">
         <v>0.73660000000000003</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A319" s="9">
+      <c r="A319" s="8">
         <v>8031003500</v>
       </c>
-      <c r="B319" s="10" t="s">
+      <c r="B319" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="C319" s="11">
+      <c r="C319" s="10">
         <v>0.71540000000000004</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A320" s="9">
+      <c r="A320" s="8">
         <v>8031002402</v>
       </c>
-      <c r="B320" s="10" t="s">
+      <c r="B320" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="C320" s="11">
+      <c r="C320" s="10">
         <v>0.65949999999999998</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A321" s="9">
+      <c r="A321" s="8">
         <v>8031001600</v>
       </c>
-      <c r="B321" s="10" t="s">
+      <c r="B321" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="C321" s="11">
+      <c r="C321" s="10">
         <v>0.65900000000000003</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A322" s="9">
+      <c r="A322" s="8">
         <v>8001008353</v>
       </c>
-      <c r="B322" s="10" t="s">
+      <c r="B322" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="C322" s="11">
+      <c r="C322" s="10">
         <v>0.78610000000000002</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A323" s="9">
+      <c r="A323" s="8">
         <v>8031004106</v>
       </c>
-      <c r="B323" s="10" t="s">
+      <c r="B323" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C323" s="11">
+      <c r="C323" s="10">
         <v>0.80920000000000003</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A324" s="9">
+      <c r="A324" s="8">
         <v>8031008306</v>
       </c>
-      <c r="B324" s="10" t="s">
+      <c r="B324" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C324" s="11">
+      <c r="C324" s="10">
         <v>0.78739999999999999</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A325" s="9">
+      <c r="A325" s="8">
         <v>8031008391</v>
       </c>
-      <c r="B325" s="10" t="s">
+      <c r="B325" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C325" s="11">
+      <c r="C325" s="10">
         <v>0.75919999999999999</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A326" s="9">
+      <c r="A326" s="8">
         <v>8031008387</v>
       </c>
-      <c r="B326" s="10" t="s">
+      <c r="B326" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C326" s="11">
+      <c r="C326" s="10">
         <v>0.75160000000000005</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A327" s="9">
+      <c r="A327" s="8">
         <v>8031004107</v>
       </c>
-      <c r="B327" s="10" t="s">
+      <c r="B327" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C327" s="11"/>
+      <c r="C327" s="10"/>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A328" s="9">
+      <c r="A328" s="8">
         <v>8001009327</v>
       </c>
-      <c r="B328" s="10" t="s">
+      <c r="B328" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C328" s="11">
+      <c r="C328" s="10">
         <v>0.82199999999999995</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A329" s="9">
+      <c r="A329" s="8">
         <v>8001008507</v>
       </c>
-      <c r="B329" s="10" t="s">
+      <c r="B329" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C329" s="11">
+      <c r="C329" s="10">
         <v>0.80149999999999999</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A330" s="9">
+      <c r="A330" s="8">
         <v>8001009304</v>
       </c>
-      <c r="B330" s="10" t="s">
+      <c r="B330" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C330" s="11">
+      <c r="C330" s="10">
         <v>0.79769999999999996</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A331" s="9">
+      <c r="A331" s="8">
         <v>8001008505</v>
       </c>
-      <c r="B331" s="10" t="s">
+      <c r="B331" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C331" s="11">
+      <c r="C331" s="10">
         <v>0.78939999999999999</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A332" s="9">
+      <c r="A332" s="8">
         <v>8001008506</v>
       </c>
-      <c r="B332" s="10" t="s">
+      <c r="B332" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C332" s="11">
+      <c r="C332" s="10">
         <v>0.78390000000000004</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A333" s="9">
+      <c r="A333" s="8">
         <v>8001009323</v>
       </c>
-      <c r="B333" s="10" t="s">
+      <c r="B333" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C333" s="11">
+      <c r="C333" s="10">
         <v>0.76970000000000005</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A334" s="9">
+      <c r="A334" s="8">
         <v>8001008533</v>
       </c>
-      <c r="B334" s="10" t="s">
+      <c r="B334" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C334" s="11">
+      <c r="C334" s="10">
         <v>0.73160000000000003</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A335" s="9">
+      <c r="A335" s="8">
         <v>8059010303</v>
       </c>
-      <c r="B335" s="10" t="s">
+      <c r="B335" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C335" s="11">
+      <c r="C335" s="10">
         <v>0.81520000000000004</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A336" s="9">
+      <c r="A336" s="8">
         <v>8059009840</v>
       </c>
-      <c r="B336" s="10" t="s">
+      <c r="B336" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C336" s="11">
+      <c r="C336" s="10">
         <v>0.81110000000000004</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A337" s="9">
+      <c r="A337" s="8">
         <v>8059009841</v>
       </c>
-      <c r="B337" s="10" t="s">
+      <c r="B337" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C337" s="11">
+      <c r="C337" s="10">
         <v>0.76770000000000005</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A338" s="9">
+      <c r="A338" s="8">
         <v>8031000501</v>
       </c>
-      <c r="B338" s="10" t="s">
+      <c r="B338" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="C338" s="11">
+      <c r="C338" s="10">
         <v>0.80130000000000001</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A339" s="9">
+      <c r="A339" s="8">
         <v>8031000302</v>
       </c>
-      <c r="B339" s="10" t="s">
+      <c r="B339" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="C339" s="11">
+      <c r="C339" s="10">
         <v>0.8004</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A340" s="9">
+      <c r="A340" s="8">
         <v>8031000502</v>
       </c>
-      <c r="B340" s="10" t="s">
+      <c r="B340" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="C340" s="11">
+      <c r="C340" s="10">
         <v>0.7571</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A341" s="9">
+      <c r="A341" s="8">
         <v>8031000202</v>
       </c>
-      <c r="B341" s="10" t="s">
+      <c r="B341" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="C341" s="11">
+      <c r="C341" s="10">
         <v>0.75149999999999995</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A342" s="9">
+      <c r="A342" s="8">
         <v>8031001101</v>
       </c>
-      <c r="B342" s="10" t="s">
+      <c r="B342" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="C342" s="11">
+      <c r="C342" s="10">
         <v>0.749</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A343" s="9">
+      <c r="A343" s="8">
         <v>8031015400</v>
       </c>
-      <c r="B343" s="10" t="s">
+      <c r="B343" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="C343" s="11">
+      <c r="C343" s="10">
         <v>0.73880000000000001</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A344" s="9">
+      <c r="A344" s="8">
         <v>8031000303</v>
       </c>
-      <c r="B344" s="10" t="s">
+      <c r="B344" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="C344" s="11">
+      <c r="C344" s="10">
         <v>0.72689999999999999</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A345" s="9">
+      <c r="A345" s="8">
         <v>8031001902</v>
       </c>
-      <c r="B345" s="10" t="s">
+      <c r="B345" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="C345" s="11"/>
+      <c r="C345" s="10"/>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A346" s="9">
+      <c r="A346" s="8">
         <v>8059010205</v>
       </c>
-      <c r="B346" s="10" t="s">
+      <c r="B346" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C346" s="11">
+      <c r="C346" s="10">
         <v>0.78959999999999997</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A347" s="9">
+      <c r="A347" s="8">
         <v>8031001403</v>
       </c>
-      <c r="B347" s="10" t="s">
+      <c r="B347" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="C347" s="11">
+      <c r="C347" s="10">
         <v>0.68189999999999995</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A348" s="9">
+      <c r="A348" s="8">
         <v>8005084600</v>
       </c>
-      <c r="B348" s="10" t="s">
+      <c r="B348" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C348" s="11">
+      <c r="C348" s="10">
         <v>0.80730000000000002</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A349" s="9">
+      <c r="A349" s="8">
         <v>8031003001</v>
       </c>
-      <c r="B349" s="10" t="s">
+      <c r="B349" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="C349" s="11">
+      <c r="C349" s="10">
         <v>0.78549999999999998</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A350" s="9">
+      <c r="A350" s="8">
         <v>8005085800</v>
       </c>
-      <c r="B350" s="10" t="s">
+      <c r="B350" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C350" s="11">
+      <c r="C350" s="10">
         <v>0.83720000000000006</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A351" s="9">
+      <c r="A351" s="8">
         <v>8005084800</v>
       </c>
-      <c r="B351" s="10" t="s">
+      <c r="B351" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C351" s="11">
+      <c r="C351" s="10">
         <v>0.81130000000000002</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A352" s="9">
+      <c r="A352" s="8">
         <v>8005085700</v>
       </c>
-      <c r="B352" s="10" t="s">
+      <c r="B352" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C352" s="11">
+      <c r="C352" s="10">
         <v>0.79400000000000004</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A353" s="9">
+      <c r="A353" s="8">
         <v>8059009837</v>
       </c>
-      <c r="B353" s="10" t="s">
+      <c r="B353" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C353" s="11">
+      <c r="C353" s="10">
         <v>0.75790000000000002</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A354" s="9">
+      <c r="A354" s="8">
         <v>8059009839</v>
       </c>
-      <c r="B354" s="10" t="s">
+      <c r="B354" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C354" s="11">
+      <c r="C354" s="10">
         <v>0.85450000000000004</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A355" s="9">
+      <c r="A355" s="8">
         <v>8001008538</v>
       </c>
-      <c r="B355" s="10" t="s">
+      <c r="B355" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="C355" s="11">
+      <c r="C355" s="10">
         <v>0.75429999999999997</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A356" s="9">
+      <c r="A356" s="8">
         <v>8031003002</v>
       </c>
-      <c r="B356" s="10" t="s">
+      <c r="B356" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="C356" s="11">
+      <c r="C356" s="10">
         <v>0.74780000000000002</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A357" s="9">
+      <c r="A357" s="8">
         <v>8031001402</v>
       </c>
-      <c r="B357" s="10" t="s">
+      <c r="B357" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="C357" s="11">
+      <c r="C357" s="10">
         <v>0.77290000000000003</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A358" s="9">
+      <c r="A358" s="8">
         <v>8031001401</v>
       </c>
-      <c r="B358" s="10" t="s">
+      <c r="B358" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="C358" s="11">
+      <c r="C358" s="10">
         <v>0.72270000000000001</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A359" s="9">
+      <c r="A359" s="8">
         <v>8001008308</v>
       </c>
-      <c r="B359" s="10" t="s">
+      <c r="B359" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="C359" s="11">
+      <c r="C359" s="10">
         <v>0.76819999999999999</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A360" s="9">
+      <c r="A360" s="8">
         <v>8005081200</v>
       </c>
-      <c r="B360" s="10" t="s">
+      <c r="B360" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="C360" s="11">
+      <c r="C360" s="10">
         <v>0.81679999999999997</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A361" s="9">
+      <c r="A361" s="8">
         <v>8005086000</v>
       </c>
-      <c r="B361" s="10" t="s">
+      <c r="B361" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="C361" s="11">
+      <c r="C361" s="10">
         <v>0.77500000000000002</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A362" s="9">
+      <c r="A362" s="8">
         <v>8005086100</v>
       </c>
-      <c r="B362" s="10" t="s">
+      <c r="B362" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="C362" s="11">
+      <c r="C362" s="10">
         <v>0.80679999999999996</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A363" s="9">
+      <c r="A363" s="8">
         <v>8059010210</v>
       </c>
-      <c r="B363" s="10" t="s">
+      <c r="B363" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C363" s="11">
+      <c r="C363" s="10">
         <v>0.79149999999999998</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A364" s="9">
+      <c r="A364" s="8">
         <v>8059010211</v>
       </c>
-      <c r="B364" s="10" t="s">
+      <c r="B364" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C364" s="11">
+      <c r="C364" s="10">
         <v>0.77649999999999997</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A365" s="9">
+      <c r="A365" s="8">
         <v>8005083400</v>
       </c>
-      <c r="B365" s="10" t="s">
+      <c r="B365" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C365" s="11">
+      <c r="C365" s="10">
         <v>0.80800000000000005</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A366" s="9">
+      <c r="A366" s="8">
         <v>8059011721</v>
       </c>
-      <c r="B366" s="10" t="s">
+      <c r="B366" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C366" s="11">
+      <c r="C366" s="10">
         <v>0.80620000000000003</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A367" s="9">
+      <c r="A367" s="8">
         <v>8059011806</v>
       </c>
-      <c r="B367" s="10" t="s">
+      <c r="B367" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="C367" s="11">
+      <c r="C367" s="10">
         <v>0.77639999999999998</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A368" s="9">
+      <c r="A368" s="8">
         <v>8059011805</v>
       </c>
-      <c r="B368" s="10" t="s">
+      <c r="B368" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="C368" s="11">
+      <c r="C368" s="10">
         <v>0.76239999999999997</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A369" s="9">
+      <c r="A369" s="8">
         <v>8059010209</v>
       </c>
-      <c r="B369" s="10" t="s">
+      <c r="B369" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C369" s="11">
+      <c r="C369" s="10">
         <v>0.83240000000000003</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A370" s="9">
+      <c r="A370" s="8">
         <v>8001009604</v>
       </c>
-      <c r="B370" s="10" t="s">
+      <c r="B370" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="C370" s="11">
+      <c r="C370" s="10">
         <v>0.79859999999999998</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A371" s="9">
+      <c r="A371" s="8">
         <v>8001009501</v>
       </c>
-      <c r="B371" s="10" t="s">
+      <c r="B371" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="C371" s="11">
+      <c r="C371" s="10">
         <v>0.78939999999999999</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A372" s="9">
+      <c r="A372" s="8">
         <v>8001009603</v>
       </c>
-      <c r="B372" s="10" t="s">
+      <c r="B372" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="C372" s="11">
+      <c r="C372" s="10">
         <v>0.78559999999999997</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A373" s="9">
+      <c r="A373" s="8">
         <v>8031005300</v>
       </c>
-      <c r="B373" s="10" t="s">
+      <c r="B373" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C373" s="11">
+      <c r="C373" s="10">
         <v>0.88560000000000005</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A374" s="9">
+      <c r="A374" s="8">
         <v>8031004002</v>
       </c>
-      <c r="B374" s="10" t="s">
+      <c r="B374" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C374" s="11">
+      <c r="C374" s="10">
         <v>0.82609999999999995</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A375" s="9">
+      <c r="A375" s="8">
         <v>8031004003</v>
       </c>
-      <c r="B375" s="10" t="s">
+      <c r="B375" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C375" s="11">
+      <c r="C375" s="10">
         <v>0.80859999999999999</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A376" s="9">
+      <c r="A376" s="8">
         <v>8031003402</v>
       </c>
-      <c r="B376" s="10" t="s">
+      <c r="B376" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C376" s="11">
+      <c r="C376" s="10">
         <v>0.79210000000000003</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A377" s="9">
+      <c r="A377" s="8">
         <v>8031002902</v>
       </c>
-      <c r="B377" s="10" t="s">
+      <c r="B377" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C377" s="11">
+      <c r="C377" s="10">
         <v>0.78539999999999999</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A378" s="9">
+      <c r="A378" s="8">
         <v>8031003004</v>
       </c>
-      <c r="B378" s="10" t="s">
+      <c r="B378" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C378" s="11">
+      <c r="C378" s="10">
         <v>0.78220000000000001</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A379" s="9">
+      <c r="A379" s="8">
         <v>8031004006</v>
       </c>
-      <c r="B379" s="10" t="s">
+      <c r="B379" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C379" s="11">
+      <c r="C379" s="10">
         <v>0.77</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A380" s="9">
+      <c r="A380" s="8">
         <v>8005005551</v>
       </c>
-      <c r="B380" s="10" t="s">
+      <c r="B380" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C380" s="11">
+      <c r="C380" s="10">
         <v>0.75290000000000001</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A381" s="9">
+      <c r="A381" s="8">
         <v>8031015600</v>
       </c>
-      <c r="B381" s="10" t="s">
+      <c r="B381" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C381" s="11">
+      <c r="C381" s="10">
         <v>0.74219999999999997</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A382" s="9">
+      <c r="A382" s="8">
         <v>8031006804</v>
       </c>
-      <c r="B382" s="10" t="s">
+      <c r="B382" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C382" s="11">
+      <c r="C382" s="10">
         <v>0.87639999999999996</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A383" s="9">
+      <c r="A383" s="8">
         <v>8031006812</v>
       </c>
-      <c r="B383" s="10" t="s">
+      <c r="B383" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C383" s="11">
+      <c r="C383" s="10">
         <v>0.8528</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A384" s="9">
+      <c r="A384" s="8">
         <v>8031006809</v>
       </c>
-      <c r="B384" s="10" t="s">
+      <c r="B384" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C384" s="11">
+      <c r="C384" s="10">
         <v>0.82989999999999997</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A385" s="9">
+      <c r="A385" s="8">
         <v>8031006810</v>
       </c>
-      <c r="B385" s="10" t="s">
+      <c r="B385" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C385" s="11">
+      <c r="C385" s="10">
         <v>0.81840000000000002</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A386" s="9">
+      <c r="A386" s="8">
         <v>8031006811</v>
       </c>
-      <c r="B386" s="10" t="s">
+      <c r="B386" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C386" s="11">
+      <c r="C386" s="10">
         <v>0.81830000000000003</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A387" s="9">
+      <c r="A387" s="8">
         <v>8005015100</v>
       </c>
-      <c r="B387" s="10" t="s">
+      <c r="B387" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C387" s="11">
+      <c r="C387" s="10">
         <v>0.81240000000000001</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A388" s="9">
+      <c r="A388" s="8">
         <v>8031006814</v>
       </c>
-      <c r="B388" s="10" t="s">
+      <c r="B388" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C388" s="11">
+      <c r="C388" s="10">
         <v>0.80669999999999997</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A389" s="9">
+      <c r="A389" s="8">
         <v>8031006701</v>
       </c>
-      <c r="B389" s="10" t="s">
+      <c r="B389" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C389" s="11">
+      <c r="C389" s="10">
         <v>0.80500000000000005</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A390" s="9">
+      <c r="A390" s="8">
         <v>8031004004</v>
       </c>
-      <c r="B390" s="10" t="s">
+      <c r="B390" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C390" s="11">
+      <c r="C390" s="10">
         <v>0.7772</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A391" s="9">
+      <c r="A391" s="8">
         <v>8031006813</v>
       </c>
-      <c r="B391" s="10" t="s">
+      <c r="B391" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C391" s="11">
+      <c r="C391" s="10">
         <v>0.76880000000000004</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A392" s="9">
+      <c r="A392" s="8">
         <v>8031015700</v>
       </c>
-      <c r="B392" s="10" t="s">
+      <c r="B392" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C392" s="11">
+      <c r="C392" s="10">
         <v>0.82210000000000005</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A393" s="9">
+      <c r="A393" s="8">
         <v>8031004801</v>
       </c>
-      <c r="B393" s="10" t="s">
+      <c r="B393" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C393" s="11">
+      <c r="C393" s="10">
         <v>0.81679999999999997</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A394" s="9">
+      <c r="A394" s="8">
         <v>8031012001</v>
       </c>
-      <c r="B394" s="10" t="s">
+      <c r="B394" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C394" s="11">
+      <c r="C394" s="10">
         <v>0.81220000000000003</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A395" s="9">
+      <c r="A395" s="8">
         <v>8031004700</v>
       </c>
-      <c r="B395" s="10" t="s">
+      <c r="B395" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C395" s="11">
+      <c r="C395" s="10">
         <v>0.76100000000000001</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A396" s="9">
+      <c r="A396" s="8">
         <v>8005083100</v>
       </c>
-      <c r="B396" s="10" t="s">
+      <c r="B396" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="C396" s="11">
+      <c r="C396" s="10">
         <v>0.82399999999999995</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A397" s="9">
+      <c r="A397" s="8">
         <v>8031000800</v>
       </c>
-      <c r="B397" s="10" t="s">
+      <c r="B397" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="C397" s="11">
+      <c r="C397" s="10">
         <v>0.73650000000000004</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A398" s="9">
+      <c r="A398" s="8">
         <v>8005007201</v>
       </c>
-      <c r="B398" s="10" t="s">
+      <c r="B398" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="C398" s="11">
+      <c r="C398" s="10">
         <v>0.73950000000000005</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A399" s="9">
+      <c r="A399" s="8">
         <v>8031000401</v>
       </c>
-      <c r="B399" s="10" t="s">
+      <c r="B399" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="C399" s="11">
+      <c r="C399" s="10">
         <v>0.76090000000000002</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A400" s="9">
+      <c r="A400" s="8">
         <v>8013061400</v>
       </c>
-      <c r="B400" s="10" t="s">
+      <c r="B400" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C400" s="11">
+      <c r="C400" s="10">
         <v>0.76080000000000003</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A401" s="9">
+      <c r="A401" s="8">
         <v>8013060600</v>
       </c>
-      <c r="B401" s="10" t="s">
+      <c r="B401" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C401" s="11">
+      <c r="C401" s="10">
         <v>0.75939999999999996</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A402" s="9">
+      <c r="A402" s="8">
         <v>8005083200</v>
       </c>
-      <c r="B402" s="10" t="s">
+      <c r="B402" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C402" s="11">
+      <c r="C402" s="10">
         <v>0.80500000000000005</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A403" s="9">
+      <c r="A403" s="8">
         <v>8005083000</v>
       </c>
-      <c r="B403" s="10" t="s">
+      <c r="B403" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C403" s="11">
+      <c r="C403" s="10">
         <v>0.8216</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A404" s="9">
+      <c r="A404" s="8">
         <v>8001008548</v>
       </c>
-      <c r="B404" s="10" t="s">
+      <c r="B404" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C404" s="11">
+      <c r="C404" s="10">
         <v>0.89980000000000004</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A405" s="9">
+      <c r="A405" s="8">
         <v>8001008529</v>
       </c>
-      <c r="B405" s="10" t="s">
+      <c r="B405" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C405" s="11">
+      <c r="C405" s="10">
         <v>0.83540000000000003</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A406" s="9">
+      <c r="A406" s="8">
         <v>8001008547</v>
       </c>
-      <c r="B406" s="10" t="s">
+      <c r="B406" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C406" s="11">
+      <c r="C406" s="10">
         <v>0.83299999999999996</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A407" s="9">
+      <c r="A407" s="8">
         <v>8001009206</v>
       </c>
-      <c r="B407" s="10" t="s">
+      <c r="B407" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C407" s="11">
+      <c r="C407" s="10">
         <v>0.83169999999999999</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A408" s="9">
+      <c r="A408" s="8">
         <v>8001008540</v>
       </c>
-      <c r="B408" s="10" t="s">
+      <c r="B408" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C408" s="11">
+      <c r="C408" s="10">
         <v>0.8266</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A409" s="9">
+      <c r="A409" s="8">
         <v>8001008550</v>
       </c>
-      <c r="B409" s="10" t="s">
+      <c r="B409" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C409" s="11">
+      <c r="C409" s="10">
         <v>0.82169999999999999</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A410" s="9">
+      <c r="A410" s="8">
         <v>8001009207</v>
       </c>
-      <c r="B410" s="10" t="s">
+      <c r="B410" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C410" s="11">
+      <c r="C410" s="10">
         <v>0.81330000000000002</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A411" s="9">
+      <c r="A411" s="8">
         <v>8001008524</v>
       </c>
-      <c r="B411" s="10" t="s">
+      <c r="B411" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C411" s="11">
+      <c r="C411" s="10">
         <v>0.80640000000000001</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A412" s="9">
+      <c r="A412" s="8">
         <v>8001009316</v>
       </c>
-      <c r="B412" s="10" t="s">
+      <c r="B412" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C412" s="11">
+      <c r="C412" s="10">
         <v>0.80500000000000005</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A413" s="9">
+      <c r="A413" s="8">
         <v>8001008545</v>
       </c>
-      <c r="B413" s="10" t="s">
+      <c r="B413" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C413" s="11">
+      <c r="C413" s="10">
         <v>0.80410000000000004</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A414" s="9">
+      <c r="A414" s="8">
         <v>8001008508</v>
       </c>
-      <c r="B414" s="10" t="s">
+      <c r="B414" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C414" s="11">
+      <c r="C414" s="10">
         <v>0.80110000000000003</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A415" s="9">
+      <c r="A415" s="8">
         <v>8001008544</v>
       </c>
-      <c r="B415" s="10" t="s">
+      <c r="B415" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C415" s="11">
+      <c r="C415" s="10">
         <v>0.79949999999999999</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A416" s="9">
+      <c r="A416" s="8">
         <v>8001008551</v>
       </c>
-      <c r="B416" s="10" t="s">
+      <c r="B416" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C416" s="11">
+      <c r="C416" s="10">
         <v>0.79330000000000001</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A417" s="9">
+      <c r="A417" s="8">
         <v>8001009204</v>
       </c>
-      <c r="B417" s="10" t="s">
+      <c r="B417" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C417" s="11">
+      <c r="C417" s="10">
         <v>0.79279999999999995</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A418" s="9">
+      <c r="A418" s="8">
         <v>8001009104</v>
       </c>
-      <c r="B418" s="10" t="s">
+      <c r="B418" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C418" s="11">
+      <c r="C418" s="10">
         <v>0.78820000000000001</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A419" s="9">
+      <c r="A419" s="8">
         <v>8001009101</v>
       </c>
-      <c r="B419" s="10" t="s">
+      <c r="B419" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C419" s="11">
+      <c r="C419" s="10">
         <v>0.7873</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A420" s="9">
+      <c r="A420" s="8">
         <v>8001009318</v>
       </c>
-      <c r="B420" s="10" t="s">
+      <c r="B420" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C420" s="11">
+      <c r="C420" s="10">
         <v>0.78680000000000005</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A421" s="9">
+      <c r="A421" s="8">
         <v>8001008526</v>
       </c>
-      <c r="B421" s="10" t="s">
+      <c r="B421" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C421" s="11">
+      <c r="C421" s="10">
         <v>0.78500000000000003</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A422" s="9">
+      <c r="A422" s="8">
         <v>8001009103</v>
       </c>
-      <c r="B422" s="10" t="s">
+      <c r="B422" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C422" s="11">
+      <c r="C422" s="10">
         <v>0.77590000000000003</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A423" s="9">
+      <c r="A423" s="8">
         <v>8001009202</v>
       </c>
-      <c r="B423" s="10" t="s">
+      <c r="B423" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C423" s="11">
+      <c r="C423" s="10">
         <v>0.77139999999999997</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A424" s="9">
+      <c r="A424" s="8">
         <v>8001008546</v>
       </c>
-      <c r="B424" s="10" t="s">
+      <c r="B424" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C424" s="11">
+      <c r="C424" s="10">
         <v>0.76400000000000001</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A425" s="9">
+      <c r="A425" s="8">
         <v>8001009322</v>
       </c>
-      <c r="B425" s="10" t="s">
+      <c r="B425" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C425" s="11">
+      <c r="C425" s="10">
         <v>0.76259999999999994</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A426" s="9">
+      <c r="A426" s="8">
         <v>8001009203</v>
       </c>
-      <c r="B426" s="10" t="s">
+      <c r="B426" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C426" s="11">
+      <c r="C426" s="10">
         <v>0.74329999999999996</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A427" s="9">
+      <c r="A427" s="8">
         <v>8059011951</v>
       </c>
-      <c r="B427" s="10" t="s">
+      <c r="B427" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C427" s="11">
+      <c r="C427" s="10">
         <v>0.77359999999999995</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A428" s="9">
+      <c r="A428" s="8">
         <v>8005082600</v>
       </c>
-      <c r="B428" s="10" t="s">
+      <c r="B428" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="C428" s="11">
+      <c r="C428" s="10">
         <v>0.79390000000000005</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A429" s="9">
+      <c r="A429" s="8">
         <v>8059011733</v>
       </c>
-      <c r="B429" s="10" t="s">
+      <c r="B429" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="C429" s="11">
+      <c r="C429" s="10">
         <v>0.80879999999999996</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A430" s="9">
+      <c r="A430" s="8">
         <v>8059011732</v>
       </c>
-      <c r="B430" s="10" t="s">
+      <c r="B430" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="C430" s="11">
+      <c r="C430" s="10">
         <v>0.77880000000000005</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A431" s="9">
+      <c r="A431" s="8">
         <v>8031004005</v>
       </c>
-      <c r="B431" s="10" t="s">
+      <c r="B431" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C431" s="11">
+      <c r="C431" s="10">
         <v>0.78949999999999998</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A432" s="9">
+      <c r="A432" s="8">
         <v>8031003003</v>
       </c>
-      <c r="B432" s="10" t="s">
+      <c r="B432" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="C432" s="11">
+      <c r="C432" s="10">
         <v>0.7036</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A433" s="9">
+      <c r="A433" s="8">
         <v>8005080700</v>
       </c>
-      <c r="B433" s="10" t="s">
+      <c r="B433" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="C433" s="11">
+      <c r="C433" s="10">
         <v>0.79990000000000006</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A434" s="9">
+      <c r="A434" s="8">
         <v>8031001000</v>
       </c>
-      <c r="B434" s="10" t="s">
+      <c r="B434" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="C434" s="11">
+      <c r="C434" s="10">
         <v>0.74719999999999998</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A435" s="9">
+      <c r="A435" s="8">
         <v>8031000904</v>
       </c>
-      <c r="B435" s="10" t="s">
+      <c r="B435" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="C435" s="11">
+      <c r="C435" s="10">
         <v>0.73</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A436" s="9">
+      <c r="A436" s="8">
         <v>8031000905</v>
       </c>
-      <c r="B436" s="10" t="s">
+      <c r="B436" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="C436" s="11">
+      <c r="C436" s="10">
         <v>0.72019999999999995</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A437" s="9">
+      <c r="A437" s="8">
         <v>8005080300</v>
       </c>
-      <c r="B437" s="10" t="s">
+      <c r="B437" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C437" s="11">
+      <c r="C437" s="10">
         <v>0.79930000000000001</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A438" s="9">
+      <c r="A438" s="8">
         <v>8005080200</v>
       </c>
-      <c r="B438" s="10" t="s">
+      <c r="B438" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C438" s="11">
+      <c r="C438" s="10">
         <v>0.79159999999999997</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A439" s="9">
+      <c r="A439" s="8">
         <v>8031002901</v>
       </c>
-      <c r="B439" s="10" t="s">
+      <c r="B439" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="C439" s="11">
+      <c r="C439" s="10">
         <v>0.80959999999999999</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A440" s="9">
+      <c r="A440" s="8">
         <v>8031003401</v>
       </c>
-      <c r="B440" s="10" t="s">
+      <c r="B440" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C440" s="11">
+      <c r="C440" s="10">
         <v>0.70620000000000005</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A441" s="9">
+      <c r="A441" s="8">
         <v>8059009831</v>
       </c>
-      <c r="B441" s="10" t="s">
+      <c r="B441" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C441" s="11">
+      <c r="C441" s="10">
         <v>0.78810000000000002</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A442" s="9">
+      <c r="A442" s="8">
         <v>8059009834</v>
       </c>
-      <c r="B442" s="10" t="s">
+      <c r="B442" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C442" s="11">
+      <c r="C442" s="10">
         <v>0.79610000000000003</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A443" s="9">
+      <c r="A443" s="8">
         <v>8059009830</v>
       </c>
-      <c r="B443" s="10" t="s">
+      <c r="B443" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C443" s="11">
+      <c r="C443" s="10">
         <v>0.84770000000000001</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A444" s="9">
+      <c r="A444" s="8">
         <v>8059009823</v>
       </c>
-      <c r="B444" s="10" t="s">
+      <c r="B444" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C444" s="11">
+      <c r="C444" s="10">
         <v>0.82799999999999996</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A445" s="9">
+      <c r="A445" s="8">
         <v>8059009829</v>
       </c>
-      <c r="B445" s="10" t="s">
+      <c r="B445" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C445" s="11">
+      <c r="C445" s="10">
         <v>0.82369999999999999</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A446" s="9">
+      <c r="A446" s="8">
         <v>8059060500</v>
       </c>
-      <c r="B446" s="10" t="s">
+      <c r="B446" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C446" s="11">
+      <c r="C446" s="10">
         <v>0.8165</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A447" s="9">
+      <c r="A447" s="8">
         <v>8059009824</v>
       </c>
-      <c r="B447" s="10" t="s">
+      <c r="B447" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C447" s="11">
+      <c r="C447" s="10">
         <v>0.80959999999999999</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A448" s="9">
+      <c r="A448" s="8">
         <v>8031001302</v>
       </c>
-      <c r="B448" s="10" t="s">
+      <c r="B448" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="C448" s="11">
+      <c r="C448" s="10">
         <v>0.77559999999999996</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A449" s="9">
+      <c r="A449" s="8">
         <v>8031001301</v>
       </c>
-      <c r="B449" s="10" t="s">
+      <c r="B449" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="C449" s="11">
+      <c r="C449" s="10">
         <v>0.76580000000000004</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A450" s="9">
+      <c r="A450" s="8">
         <v>8031004601</v>
       </c>
-      <c r="B450" s="10" t="s">
+      <c r="B450" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="C450" s="11">
+      <c r="C450" s="10">
         <v>0.75409999999999999</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A451" s="9">
+      <c r="A451" s="8">
         <v>8031000702</v>
       </c>
-      <c r="B451" s="10" t="s">
+      <c r="B451" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="C451" s="11">
+      <c r="C451" s="10">
         <v>0.74160000000000004</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A452" s="9">
+      <c r="A452" s="8">
         <v>8031004504</v>
       </c>
-      <c r="B452" s="10" t="s">
+      <c r="B452" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="C452" s="11">
+      <c r="C452" s="10">
         <v>0.72299999999999998</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A453" s="9">
+      <c r="A453" s="8">
         <v>8031004506</v>
       </c>
-      <c r="B453" s="10" t="s">
+      <c r="B453" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="C453" s="11">
+      <c r="C453" s="10">
         <v>0.7208</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A454" s="9">
+      <c r="A454" s="8">
         <v>8031004503</v>
       </c>
-      <c r="B454" s="10" t="s">
+      <c r="B454" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="C454" s="11">
+      <c r="C454" s="10">
         <v>0.71020000000000005</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A455" s="9">
+      <c r="A455" s="8">
         <v>8031000701</v>
       </c>
-      <c r="B455" s="10" t="s">
+      <c r="B455" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="C455" s="11">
+      <c r="C455" s="10">
         <v>0.68959999999999999</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A456" s="9">
+      <c r="A456" s="8">
         <v>8031004505</v>
       </c>
-      <c r="B456" s="10" t="s">
+      <c r="B456" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="C456" s="11">
+      <c r="C456" s="10">
         <v>0.66779999999999995</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A457" s="9">
+      <c r="A457" s="8">
         <v>8059009827</v>
       </c>
-      <c r="B457" s="10" t="s">
+      <c r="B457" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C457" s="11">
+      <c r="C457" s="10">
         <v>0.79969999999999997</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A458" s="9">
+      <c r="A458" s="8">
         <v>8059012043</v>
       </c>
-      <c r="B458" s="10" t="s">
+      <c r="B458" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C458" s="11">
+      <c r="C458" s="10">
         <v>0.82950000000000002</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A459" s="9">
+      <c r="A459" s="8">
         <v>8001009407</v>
       </c>
-      <c r="B459" s="10" t="s">
+      <c r="B459" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C459" s="11">
+      <c r="C459" s="10">
         <v>0.8034</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A460" s="9">
+      <c r="A460" s="8">
         <v>8001009401</v>
       </c>
-      <c r="B460" s="10" t="s">
+      <c r="B460" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C460" s="11">
+      <c r="C460" s="10">
         <v>0.79949999999999999</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A461" s="9">
+      <c r="A461" s="8">
         <v>8001009607</v>
       </c>
-      <c r="B461" s="10" t="s">
+      <c r="B461" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C461" s="11">
+      <c r="C461" s="10">
         <v>0.78210000000000002</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A462" s="9">
+      <c r="A462" s="8">
         <v>8001009309</v>
       </c>
-      <c r="B462" s="10" t="s">
+      <c r="B462" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C462" s="11">
+      <c r="C462" s="10">
         <v>0.76380000000000003</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A463" s="9">
+      <c r="A463" s="8">
         <v>8001009320</v>
       </c>
-      <c r="B463" s="10" t="s">
+      <c r="B463" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C463" s="11">
+      <c r="C463" s="10">
         <v>0.75049999999999994</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A464" s="9">
+      <c r="A464" s="8">
         <v>8059010503</v>
       </c>
-      <c r="B464" s="10" t="s">
+      <c r="B464" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C464" s="11">
+      <c r="C464" s="10">
         <v>0.78790000000000004</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A465" s="9">
+      <c r="A465" s="8">
         <v>8059010702</v>
       </c>
-      <c r="B465" s="10" t="s">
+      <c r="B465" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C465" s="11">
+      <c r="C465" s="10">
         <v>0.7702</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A466" s="9">
+      <c r="A466" s="8">
         <v>8005081300</v>
       </c>
-      <c r="B466" s="10" t="s">
+      <c r="B466" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="C466" s="11">
+      <c r="C466" s="10">
         <v>0.82989999999999997</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A467" s="9">
+      <c r="A467" s="8">
         <v>8059012038</v>
       </c>
-      <c r="B467" s="10" t="s">
+      <c r="B467" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C467" s="11">
+      <c r="C467" s="10">
         <v>0.80410000000000004</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A468" s="9">
+      <c r="A468" s="8">
         <v>8059009851</v>
       </c>
-      <c r="B468" s="10" t="s">
+      <c r="B468" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C468" s="11">
+      <c r="C468" s="10">
         <v>0.7964</v>
       </c>
     </row>
@@ -11574,14 +11574,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>197</v>
+      <c r="C1" s="15" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="42" x14ac:dyDescent="0.2">
@@ -11793,7 +11793,7 @@
         <v>504.2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="70" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="42" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>8005083300</v>
       </c>
@@ -11804,7 +11804,7 @@
         <v>744.9</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="70" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="42" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>8005084500</v>
       </c>
@@ -11969,7 +11969,7 @@
         <v>55027</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="42" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>8031000902</v>
       </c>
@@ -11991,7 +11991,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="42" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>8059010603</v>
       </c>
@@ -12002,7 +12002,7 @@
         <v>2445</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="42" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>8059010604</v>
       </c>
@@ -12013,7 +12013,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="42" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>8059010701</v>
       </c>
@@ -12024,7 +12024,7 @@
         <v>926.1</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="42" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>8059011729</v>
       </c>
@@ -12035,7 +12035,7 @@
         <v>1805</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="42" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>8059011731</v>
       </c>
@@ -12046,7 +12046,7 @@
         <v>618.1</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="42" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>8059011730</v>
       </c>
@@ -12079,7 +12079,7 @@
         <v>478.4</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="42" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>8059010502</v>
       </c>
@@ -12101,7 +12101,7 @@
         <v>2434</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="42" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>8059011701</v>
       </c>
@@ -12156,7 +12156,7 @@
         <v>663.6</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>8001008549</v>
       </c>
@@ -12167,7 +12167,7 @@
         <v>152.9</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>8001008523</v>
       </c>
@@ -12178,7 +12178,7 @@
         <v>69.03</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>8001008541</v>
       </c>
@@ -12189,7 +12189,7 @@
         <v>25.24</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>8014031100</v>
       </c>
@@ -12200,7 +12200,7 @@
         <v>3432</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>8014030300</v>
       </c>
@@ -12211,7 +12211,7 @@
         <v>2290</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>8014031200</v>
       </c>
@@ -12222,7 +12222,7 @@
         <v>2076</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>8014030200</v>
       </c>
@@ -12233,7 +12233,7 @@
         <v>2064</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>8014030000</v>
       </c>
@@ -12244,7 +12244,7 @@
         <v>882.8</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>8014030100</v>
       </c>
@@ -12255,7 +12255,7 @@
         <v>793.3</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>8014030800</v>
       </c>
@@ -12266,7 +12266,7 @@
         <v>596.79999999999995</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>8014030700</v>
       </c>
@@ -12277,7 +12277,7 @@
         <v>402.6</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>8014030900</v>
       </c>
@@ -12288,7 +12288,7 @@
         <v>274.5</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>8014031000</v>
       </c>
@@ -12299,7 +12299,7 @@
         <v>257.3</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>8014030500</v>
       </c>
@@ -12310,7 +12310,7 @@
         <v>224.6</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>8014030400</v>
       </c>
@@ -12321,7 +12321,7 @@
         <v>200.2</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>8014030600</v>
       </c>
@@ -12332,7 +12332,7 @@
         <v>99.9</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="42" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>8059009815</v>
       </c>
@@ -12343,7 +12343,7 @@
         <v>106.6</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="42" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>8059009836</v>
       </c>
@@ -12365,7 +12365,7 @@
         <v>36077</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="42" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>8059011727</v>
       </c>
@@ -12376,7 +12376,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="42" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>8059011728</v>
       </c>
@@ -12387,7 +12387,7 @@
         <v>389.5</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="42" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>8005084200</v>
       </c>
@@ -12398,7 +12398,7 @@
         <v>423.1</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="42" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>8005084100</v>
       </c>
@@ -12409,7 +12409,7 @@
         <v>318.60000000000002</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>8005086200</v>
       </c>
@@ -12420,7 +12420,7 @@
         <v>595.29999999999995</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>8005085400</v>
       </c>
@@ -12431,7 +12431,7 @@
         <v>588.20000000000005</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>8005081700</v>
       </c>
@@ -12442,7 +12442,7 @@
         <v>564.4</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>8005085500</v>
       </c>
@@ -12453,7 +12453,7 @@
         <v>177.2</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>8031001702</v>
       </c>
@@ -12464,7 +12464,7 @@
         <v>148450</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>8031002601</v>
       </c>
@@ -12475,7 +12475,7 @@
         <v>85383</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>8031002702</v>
       </c>
@@ -12486,7 +12486,7 @@
         <v>61087</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>8031003101</v>
       </c>
@@ -12497,7 +12497,7 @@
         <v>26239</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>8031001800</v>
       </c>
@@ -12508,7 +12508,7 @@
         <v>22670</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>8031003102</v>
       </c>
@@ -12519,7 +12519,7 @@
         <v>17609</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>8031002602</v>
       </c>
@@ -12530,7 +12530,7 @@
         <v>11303</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>8031002802</v>
       </c>
@@ -12541,7 +12541,7 @@
         <v>8895</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>8031002000</v>
       </c>
@@ -12552,7 +12552,7 @@
         <v>7980</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>8031001901</v>
       </c>
@@ -12563,7 +12563,7 @@
         <v>7646</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>8031003703</v>
       </c>
@@ -12574,7 +12574,7 @@
         <v>7230</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>8031002100</v>
       </c>
@@ -12585,7 +12585,7 @@
         <v>4985</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>8031002703</v>
       </c>
@@ -12596,7 +12596,7 @@
         <v>3678</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>8031002803</v>
       </c>
@@ -12607,7 +12607,7 @@
         <v>2257</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>8031003702</v>
       </c>
@@ -12618,7 +12618,7 @@
         <v>2073</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>8031003201</v>
       </c>
@@ -12629,7 +12629,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>8031003203</v>
       </c>
@@ -12640,7 +12640,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>8031003701</v>
       </c>
@@ -12651,7 +12651,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>8031003300</v>
       </c>
@@ -12662,7 +12662,7 @@
         <v>764.1</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="42" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>8005082100</v>
       </c>
@@ -12684,7 +12684,7 @@
         <v>4281</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="42" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>8031000201</v>
       </c>
@@ -12695,7 +12695,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="42" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>8005081800</v>
       </c>
@@ -12706,7 +12706,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="42" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>8031003202</v>
       </c>
@@ -12717,7 +12717,7 @@
         <v>3867</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="42" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>8005081000</v>
       </c>
@@ -12750,7 +12750,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>8001008709</v>
       </c>
@@ -12761,7 +12761,7 @@
         <v>3794</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>8001008901</v>
       </c>
@@ -12772,7 +12772,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>8001008802</v>
       </c>
@@ -12783,7 +12783,7 @@
         <v>929.2</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>8001008705</v>
       </c>
@@ -12794,7 +12794,7 @@
         <v>738.1</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>8001008801</v>
       </c>
@@ -12805,7 +12805,7 @@
         <v>700.6</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>8001008706</v>
       </c>
@@ -12816,7 +12816,7 @@
         <v>652.9</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>8001008539</v>
       </c>
@@ -12827,7 +12827,7 @@
         <v>53.72</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>8001008536</v>
       </c>
@@ -12838,7 +12838,7 @@
         <v>32.090000000000003</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="42" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>8031003902</v>
       </c>
@@ -12849,7 +12849,7 @@
         <v>5217</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="56" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>8059011550</v>
       </c>
@@ -12860,7 +12860,7 @@
         <v>1726</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="42" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>8005083500</v>
       </c>
@@ -12871,7 +12871,7 @@
         <v>735.6</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="42" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>8059011202</v>
       </c>
@@ -12882,7 +12882,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="42" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>8005080400</v>
       </c>
@@ -12893,7 +12893,7 @@
         <v>4981</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="42" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>8005087100</v>
       </c>
@@ -12904,7 +12904,7 @@
         <v>5032</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="42" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>8005087000</v>
       </c>
@@ -12915,7 +12915,7 @@
         <v>3707</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="42" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>8005007400</v>
       </c>
@@ -12926,7 +12926,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="42" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>8005007302</v>
       </c>
@@ -12937,7 +12937,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="56" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" ht="42" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>8005006858</v>
       </c>
@@ -13190,7 +13190,7 @@
         <v>32.729999999999997</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="56" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" ht="42" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>8001009411</v>
       </c>
@@ -13201,7 +13201,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="56" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" ht="42" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>8001009406</v>
       </c>
@@ -13212,7 +13212,7 @@
         <v>661.7</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="56" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" ht="42" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>8001009410</v>
       </c>
@@ -13223,7 +13223,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="42" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>8059010100</v>
       </c>
@@ -13234,7 +13234,7 @@
         <v>5603</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="56" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" ht="42" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>8005080500</v>
       </c>
@@ -13245,7 +13245,7 @@
         <v>3768</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>8031003800</v>
       </c>
@@ -13256,7 +13256,7 @@
         <v>15357</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>8031004301</v>
       </c>
@@ -13267,7 +13267,7 @@
         <v>12441</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>8031015500</v>
       </c>
@@ -13278,7 +13278,7 @@
         <v>11996</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>8031005104</v>
       </c>
@@ -13289,7 +13289,7 @@
         <v>11297</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>8031004102</v>
       </c>
@@ -13300,7 +13300,7 @@
         <v>4179</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>8031005200</v>
       </c>
@@ -13311,7 +13311,7 @@
         <v>2943</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>8031007037</v>
       </c>
@@ -13322,7 +13322,7 @@
         <v>2935</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>8031004101</v>
       </c>
@@ -13333,7 +13333,7 @@
         <v>2682</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>8031005002</v>
       </c>
@@ -13344,7 +13344,7 @@
         <v>1896</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>8031004405</v>
       </c>
@@ -13355,7 +13355,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>8031007013</v>
       </c>
@@ -13366,7 +13366,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>8031004202</v>
       </c>
@@ -13377,7 +13377,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>8031004201</v>
       </c>
@@ -13388,7 +13388,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>8031005102</v>
       </c>
@@ -13399,7 +13399,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>8031004304</v>
       </c>
@@ -13410,7 +13410,7 @@
         <v>973.3</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>8031005001</v>
       </c>
@@ -13421,7 +13421,7 @@
         <v>969.7</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>8031004303</v>
       </c>
@@ -13432,7 +13432,7 @@
         <v>636.29999999999995</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>8031004306</v>
       </c>
@@ -13443,7 +13443,7 @@
         <v>588.1</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>8031004104</v>
       </c>
@@ -13454,7 +13454,7 @@
         <v>509.2</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>8031007088</v>
       </c>
@@ -13465,7 +13465,7 @@
         <v>466.2</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>8031007089</v>
       </c>
@@ -13476,7 +13476,7 @@
         <v>431.9</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>8031004404</v>
       </c>
@@ -13487,7 +13487,7 @@
         <v>307.5</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>8031004103</v>
       </c>
@@ -13498,7 +13498,7 @@
         <v>307.10000000000002</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>8031004403</v>
       </c>
@@ -13509,7 +13509,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>8059011300</v>
       </c>
@@ -13520,7 +13520,7 @@
         <v>955.6</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="42" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>8059011401</v>
       </c>
@@ -13531,7 +13531,7 @@
         <v>5699</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="42" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>8059011402</v>
       </c>
@@ -13542,7 +13542,7 @@
         <v>3363</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="42" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>8059010902</v>
       </c>
@@ -13553,7 +13553,7 @@
         <v>4900</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="42" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>8059011100</v>
       </c>
@@ -13564,7 +13564,7 @@
         <v>2384</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>8005005951</v>
       </c>
@@ -13575,7 +13575,7 @@
         <v>9429</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>8005006000</v>
       </c>
@@ -13586,7 +13586,7 @@
         <v>4866</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>8005005700</v>
       </c>
@@ -13597,7 +13597,7 @@
         <v>4693</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>8005006200</v>
       </c>
@@ -13608,7 +13608,7 @@
         <v>2730</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>8005005552</v>
       </c>
@@ -13619,7 +13619,7 @@
         <v>2287</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>8005006400</v>
       </c>
@@ -13630,7 +13630,7 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>8005006300</v>
       </c>
@@ -13641,7 +13641,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>8005005553</v>
       </c>
@@ -13652,7 +13652,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>8005006100</v>
       </c>
@@ -13663,7 +13663,7 @@
         <v>990.9</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>8005005800</v>
       </c>
@@ -13674,7 +13674,7 @@
         <v>585.5</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>8005005952</v>
       </c>
@@ -13685,7 +13685,7 @@
         <v>529.70000000000005</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>8005006705</v>
       </c>
@@ -13696,7 +13696,7 @@
         <v>249.6</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>8005006808</v>
       </c>
@@ -13707,7 +13707,7 @@
         <v>189.3</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>8005006704</v>
       </c>
@@ -13740,7 +13740,7 @@
         <v>875.5</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="42" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>8059009832</v>
       </c>
@@ -13751,7 +13751,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>8001009321</v>
       </c>
@@ -13762,7 +13762,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>8001009319</v>
       </c>
@@ -13795,7 +13795,7 @@
         <v>2953</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="42" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>8059012042</v>
       </c>
@@ -13806,7 +13806,7 @@
         <v>593.1</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="42" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>8059011723</v>
       </c>
@@ -13817,7 +13817,7 @@
         <v>3409</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="42" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>8059011711</v>
       </c>
@@ -13850,7 +13850,7 @@
         <v>448.7</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="56" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>8059012039</v>
       </c>
@@ -13861,7 +13861,7 @@
         <v>165.9</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="42" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>8059010403</v>
       </c>
@@ -13883,7 +13883,7 @@
         <v>356.7</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="42" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>8059009845</v>
       </c>
@@ -13894,7 +13894,7 @@
         <v>72.510000000000005</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>8005004952</v>
       </c>
@@ -13905,7 +13905,7 @@
         <v>21411</v>
       </c>
     </row>
-    <row r="213" spans="1:3" ht="56" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>8059011708</v>
       </c>
@@ -13971,7 +13971,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="42" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>8059012054</v>
       </c>
@@ -13982,7 +13982,7 @@
         <v>2659</v>
       </c>
     </row>
-    <row r="220" spans="1:3" ht="56" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>8001008534</v>
       </c>
@@ -13993,7 +13993,7 @@
         <v>236.7</v>
       </c>
     </row>
-    <row r="221" spans="1:3" ht="42" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>8031012010</v>
       </c>
@@ -14004,7 +14004,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="222" spans="1:3" ht="42" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>8059012050</v>
       </c>
@@ -14015,7 +14015,7 @@
         <v>1629</v>
       </c>
     </row>
-    <row r="223" spans="1:3" ht="56" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>8059011726</v>
       </c>
@@ -14026,7 +14026,7 @@
         <v>356.1</v>
       </c>
     </row>
-    <row r="224" spans="1:3" ht="56" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>8059011712</v>
       </c>
@@ -14037,7 +14037,7 @@
         <v>265.7</v>
       </c>
     </row>
-    <row r="225" spans="1:3" ht="56" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>8059011725</v>
       </c>
@@ -14048,7 +14048,7 @@
         <v>164.9</v>
       </c>
     </row>
-    <row r="226" spans="1:3" ht="56" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>8059011724</v>
       </c>
@@ -14059,7 +14059,7 @@
         <v>50.95</v>
       </c>
     </row>
-    <row r="227" spans="1:3" ht="42" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>8031008389</v>
       </c>
@@ -14070,7 +14070,7 @@
         <v>296.5</v>
       </c>
     </row>
-    <row r="228" spans="1:3" ht="42" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>8031008390</v>
       </c>
@@ -14081,7 +14081,7 @@
         <v>174.5</v>
       </c>
     </row>
-    <row r="229" spans="1:3" ht="56" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:3" ht="42" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>8059011803</v>
       </c>
@@ -14158,7 +14158,7 @@
         <v>71.430000000000007</v>
       </c>
     </row>
-    <row r="236" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>8031004302</v>
       </c>
@@ -14180,7 +14180,7 @@
         <v>478.5</v>
       </c>
     </row>
-    <row r="238" spans="1:3" ht="42" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>8005081400</v>
       </c>
@@ -14191,7 +14191,7 @@
         <v>3479</v>
       </c>
     </row>
-    <row r="239" spans="1:3" ht="42" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>8005081500</v>
       </c>
@@ -14202,7 +14202,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="240" spans="1:3" ht="42" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>8005080600</v>
       </c>
@@ -14213,7 +14213,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="241" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>8001008535</v>
       </c>
@@ -14224,7 +14224,7 @@
         <v>671.2</v>
       </c>
     </row>
-    <row r="242" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>8001008537</v>
       </c>
@@ -14235,7 +14235,7 @@
         <v>227.8</v>
       </c>
     </row>
-    <row r="243" spans="1:3" ht="42" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>8005007703</v>
       </c>
@@ -14279,7 +14279,7 @@
         <v>721.6</v>
       </c>
     </row>
-    <row r="247" spans="1:3" ht="42" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>8005007704</v>
       </c>
@@ -14290,7 +14290,7 @@
         <v>771.6</v>
       </c>
     </row>
-    <row r="248" spans="1:3" ht="42" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>8005082300</v>
       </c>
@@ -14301,7 +14301,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="249" spans="1:3" ht="42" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>8059010405</v>
       </c>
@@ -14312,7 +14312,7 @@
         <v>5358</v>
       </c>
     </row>
-    <row r="250" spans="1:3" ht="42" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>8059010402</v>
       </c>
@@ -14323,7 +14323,7 @@
         <v>2739</v>
       </c>
     </row>
-    <row r="251" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>8059012027</v>
       </c>
@@ -14345,7 +14345,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="253" spans="1:3" ht="42" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>8031000600</v>
       </c>
@@ -14356,7 +14356,7 @@
         <v>7868</v>
       </c>
     </row>
-    <row r="254" spans="1:3" ht="70" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:3" ht="42" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>8005007600</v>
       </c>
@@ -14367,7 +14367,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="255" spans="1:3" ht="70" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:3" ht="42" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>8005007301</v>
       </c>
@@ -14378,7 +14378,7 @@
         <v>771.1</v>
       </c>
     </row>
-    <row r="256" spans="1:3" ht="70" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:3" ht="42" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>8005007500</v>
       </c>
@@ -14389,7 +14389,7 @@
         <v>163.1</v>
       </c>
     </row>
-    <row r="257" spans="1:3" ht="56" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>8059011702</v>
       </c>
@@ -14400,7 +14400,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="258" spans="1:3" ht="56" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>8059011709</v>
       </c>
@@ -14411,7 +14411,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="259" spans="1:3" ht="56" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>8059011710</v>
       </c>
@@ -14422,7 +14422,7 @@
         <v>156.80000000000001</v>
       </c>
     </row>
-    <row r="260" spans="1:3" ht="42" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>8059009828</v>
       </c>
@@ -14433,7 +14433,7 @@
         <v>587.9</v>
       </c>
     </row>
-    <row r="261" spans="1:3" ht="42" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>8059010000</v>
       </c>
@@ -14444,7 +14444,7 @@
         <v>3638</v>
       </c>
     </row>
-    <row r="262" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>8013060800</v>
       </c>
@@ -14466,7 +14466,7 @@
         <v>685.4</v>
       </c>
     </row>
-    <row r="264" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>8059011904</v>
       </c>
@@ -14477,7 +14477,7 @@
         <v>4516</v>
       </c>
     </row>
-    <row r="265" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>8059015900</v>
       </c>
@@ -14488,7 +14488,7 @@
         <v>236.9</v>
       </c>
     </row>
-    <row r="266" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>8059011720</v>
       </c>
@@ -14510,7 +14510,7 @@
         <v>796.5</v>
       </c>
     </row>
-    <row r="268" spans="1:3" ht="56" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>8059010213</v>
       </c>
@@ -14521,7 +14521,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="269" spans="1:3" ht="56" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>8059010212</v>
       </c>
@@ -14532,7 +14532,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="270" spans="1:3" ht="42" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>8005081900</v>
       </c>
@@ -14543,7 +14543,7 @@
         <v>247.8</v>
       </c>
     </row>
-    <row r="271" spans="1:3" ht="42" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>8059011804</v>
       </c>
@@ -14620,7 +14620,7 @@
         <v>254.9</v>
       </c>
     </row>
-    <row r="278" spans="1:3" ht="42" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>8005082900</v>
       </c>
@@ -14631,7 +14631,7 @@
         <v>39.33</v>
       </c>
     </row>
-    <row r="279" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>8013060700</v>
       </c>
@@ -14642,7 +14642,7 @@
         <v>1933</v>
       </c>
     </row>
-    <row r="280" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>8013061300</v>
       </c>
@@ -14686,7 +14686,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="284" spans="1:3" ht="42" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>8005083800</v>
       </c>
@@ -14697,7 +14697,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="285" spans="1:3" ht="42" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>8005083900</v>
       </c>
@@ -14752,7 +14752,7 @@
         <v>566.9</v>
       </c>
     </row>
-    <row r="290" spans="1:3" ht="42" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>8005084000</v>
       </c>
@@ -14763,7 +14763,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="291" spans="1:3" ht="42" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>8005084700</v>
       </c>
@@ -14829,7 +14829,7 @@
         <v>25.25</v>
       </c>
     </row>
-    <row r="297" spans="1:3" ht="42" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>8001008200</v>
       </c>
@@ -14840,7 +14840,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="298" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>8059012034</v>
       </c>
@@ -14851,7 +14851,7 @@
         <v>40.909999999999997</v>
       </c>
     </row>
-    <row r="299" spans="1:3" ht="42" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>8059011000</v>
       </c>
@@ -14862,7 +14862,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="300" spans="1:3" ht="42" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>8001008309</v>
       </c>
@@ -14873,7 +14873,7 @@
         <v>2392</v>
       </c>
     </row>
-    <row r="301" spans="1:3" ht="42" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>8059011601</v>
       </c>
@@ -14884,7 +14884,7 @@
         <v>2408</v>
       </c>
     </row>
-    <row r="302" spans="1:3" ht="56" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>8059011602</v>
       </c>
@@ -14895,7 +14895,7 @@
         <v>3260</v>
       </c>
     </row>
-    <row r="303" spans="1:3" ht="42" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>8001007801</v>
       </c>
@@ -14906,7 +14906,7 @@
         <v>1601</v>
       </c>
     </row>
-    <row r="304" spans="1:3" ht="42" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>8001007802</v>
       </c>
@@ -14917,7 +14917,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="305" spans="1:3" ht="70" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:3" ht="42" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>8059060400</v>
       </c>
@@ -14928,7 +14928,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="306" spans="1:3" ht="70" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:3" ht="42" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>8059060300</v>
       </c>
@@ -14939,7 +14939,7 @@
         <v>495.8</v>
       </c>
     </row>
-    <row r="307" spans="1:3" ht="70" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:3" ht="42" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>8001009325</v>
       </c>
@@ -14950,7 +14950,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="308" spans="1:3" ht="70" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:3" ht="42" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>8001009408</v>
       </c>
@@ -14961,7 +14961,7 @@
         <v>887.8</v>
       </c>
     </row>
-    <row r="309" spans="1:3" ht="70" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:3" ht="42" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>8001009326</v>
       </c>
@@ -14972,7 +14972,7 @@
         <v>470.8</v>
       </c>
     </row>
-    <row r="310" spans="1:3" ht="70" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:3" ht="42" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>8001009409</v>
       </c>
@@ -14983,7 +14983,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="311" spans="1:3" ht="42" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>8001060200</v>
       </c>
@@ -14994,7 +14994,7 @@
         <v>2357</v>
       </c>
     </row>
-    <row r="312" spans="1:3" ht="56" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>8001060100</v>
       </c>
@@ -15005,7 +15005,7 @@
         <v>313.39999999999998</v>
       </c>
     </row>
-    <row r="313" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>8031001600</v>
       </c>
@@ -15016,7 +15016,7 @@
         <v>5802</v>
       </c>
     </row>
-    <row r="314" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>8031003500</v>
       </c>
@@ -15027,7 +15027,7 @@
         <v>2825</v>
       </c>
     </row>
-    <row r="315" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>8031003603</v>
       </c>
@@ -15038,7 +15038,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="316" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>8031003601</v>
       </c>
@@ -15049,7 +15049,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="317" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>8031002402</v>
       </c>
@@ -15060,7 +15060,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="318" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>8031003602</v>
       </c>
@@ -15071,7 +15071,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="319" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>8031002300</v>
       </c>
@@ -15148,7 +15148,7 @@
         <v>22.73</v>
       </c>
     </row>
-    <row r="326" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>8001008506</v>
       </c>
@@ -15159,7 +15159,7 @@
         <v>10455</v>
       </c>
     </row>
-    <row r="327" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>8001009323</v>
       </c>
@@ -15170,7 +15170,7 @@
         <v>2937</v>
       </c>
     </row>
-    <row r="328" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>8001008533</v>
       </c>
@@ -15181,7 +15181,7 @@
         <v>825.5</v>
       </c>
     </row>
-    <row r="329" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>8001009304</v>
       </c>
@@ -15192,7 +15192,7 @@
         <v>819.1</v>
       </c>
     </row>
-    <row r="330" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>8001008505</v>
       </c>
@@ -15203,7 +15203,7 @@
         <v>384.4</v>
       </c>
     </row>
-    <row r="331" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>8001008507</v>
       </c>
@@ -15214,7 +15214,7 @@
         <v>247.8</v>
       </c>
     </row>
-    <row r="332" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>8001009327</v>
       </c>
@@ -15225,7 +15225,7 @@
         <v>64.48</v>
       </c>
     </row>
-    <row r="333" spans="1:3" ht="42" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>8059009841</v>
       </c>
@@ -15236,7 +15236,7 @@
         <v>769.1</v>
       </c>
     </row>
-    <row r="334" spans="1:3" ht="42" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>8059010303</v>
       </c>
@@ -15247,7 +15247,7 @@
         <v>303.10000000000002</v>
       </c>
     </row>
-    <row r="335" spans="1:3" ht="42" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>8059009840</v>
       </c>
@@ -15368,7 +15368,7 @@
         <v>3459</v>
       </c>
     </row>
-    <row r="346" spans="1:3" ht="42" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>8005084600</v>
       </c>
@@ -15390,7 +15390,7 @@
         <v>2374</v>
       </c>
     </row>
-    <row r="348" spans="1:3" ht="42" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>8005085700</v>
       </c>
@@ -15401,7 +15401,7 @@
         <v>631.9</v>
       </c>
     </row>
-    <row r="349" spans="1:3" ht="42" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>8005084800</v>
       </c>
@@ -15412,7 +15412,7 @@
         <v>134.69999999999999</v>
       </c>
     </row>
-    <row r="350" spans="1:3" ht="42" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>8005085800</v>
       </c>
@@ -15423,7 +15423,7 @@
         <v>38.81</v>
       </c>
     </row>
-    <row r="351" spans="1:3" ht="42" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>8059009837</v>
       </c>
@@ -15434,7 +15434,7 @@
         <v>45.79</v>
       </c>
     </row>
-    <row r="352" spans="1:3" ht="42" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>8059009839</v>
       </c>
@@ -15445,7 +15445,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="353" spans="1:3" ht="42" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>8001008538</v>
       </c>
@@ -15511,7 +15511,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="359" spans="1:3" ht="42" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>8005086000</v>
       </c>
@@ -15522,7 +15522,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="360" spans="1:3" ht="42" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>8059010211</v>
       </c>
@@ -15533,7 +15533,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="361" spans="1:3" ht="42" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>8059010210</v>
       </c>
@@ -15555,7 +15555,7 @@
         <v>480.1</v>
       </c>
     </row>
-    <row r="363" spans="1:3" ht="42" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>8059011721</v>
       </c>
@@ -15566,7 +15566,7 @@
         <v>549.79999999999995</v>
       </c>
     </row>
-    <row r="364" spans="1:3" ht="56" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>8059011805</v>
       </c>
@@ -15577,7 +15577,7 @@
         <v>7812</v>
       </c>
     </row>
-    <row r="365" spans="1:3" ht="56" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>8059011806</v>
       </c>
@@ -15588,7 +15588,7 @@
         <v>451.4</v>
       </c>
     </row>
-    <row r="366" spans="1:3" ht="42" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>8059010209</v>
       </c>
@@ -15599,7 +15599,7 @@
         <v>479.7</v>
       </c>
     </row>
-    <row r="367" spans="1:3" ht="56" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>8001009603</v>
       </c>
@@ -15610,7 +15610,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="368" spans="1:3" ht="56" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>8001009604</v>
       </c>
@@ -15621,7 +15621,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="369" spans="1:3" ht="56" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>8001009501</v>
       </c>
@@ -15632,7 +15632,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="370" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>8031005300</v>
       </c>
@@ -15643,7 +15643,7 @@
         <v>14841</v>
       </c>
     </row>
-    <row r="371" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>8005005551</v>
       </c>
@@ -15654,7 +15654,7 @@
         <v>5844</v>
       </c>
     </row>
-    <row r="372" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>8031003004</v>
       </c>
@@ -15665,7 +15665,7 @@
         <v>5693</v>
       </c>
     </row>
-    <row r="373" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>8031015600</v>
       </c>
@@ -15676,7 +15676,7 @@
         <v>1948</v>
       </c>
     </row>
-    <row r="374" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>8031002902</v>
       </c>
@@ -15687,7 +15687,7 @@
         <v>1895</v>
       </c>
     </row>
-    <row r="375" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>8031004003</v>
       </c>
@@ -15698,7 +15698,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="376" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>8031003402</v>
       </c>
@@ -15709,7 +15709,7 @@
         <v>863.8</v>
       </c>
     </row>
-    <row r="377" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>8031004006</v>
       </c>
@@ -15720,7 +15720,7 @@
         <v>766.6</v>
       </c>
     </row>
-    <row r="378" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>8031004002</v>
       </c>
@@ -15962,7 +15962,7 @@
         <v>64.58</v>
       </c>
     </row>
-    <row r="400" spans="1:3" ht="70" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:3" ht="42" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>8005083000</v>
       </c>
@@ -15973,7 +15973,7 @@
         <v>13.89</v>
       </c>
     </row>
-    <row r="401" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>8001009203</v>
       </c>
@@ -15984,7 +15984,7 @@
         <v>4257</v>
       </c>
     </row>
-    <row r="402" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>8001008529</v>
       </c>
@@ -15995,7 +15995,7 @@
         <v>2052</v>
       </c>
     </row>
-    <row r="403" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>8001009202</v>
       </c>
@@ -16006,7 +16006,7 @@
         <v>1894</v>
       </c>
     </row>
-    <row r="404" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>8001009318</v>
       </c>
@@ -16017,7 +16017,7 @@
         <v>1786</v>
       </c>
     </row>
-    <row r="405" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>8001008547</v>
       </c>
@@ -16028,7 +16028,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="406" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>8001009322</v>
       </c>
@@ -16039,7 +16039,7 @@
         <v>969.9</v>
       </c>
     </row>
-    <row r="407" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>8001009204</v>
       </c>
@@ -16050,7 +16050,7 @@
         <v>958.5</v>
       </c>
     </row>
-    <row r="408" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>8001009206</v>
       </c>
@@ -16061,7 +16061,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="409" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>8001009316</v>
       </c>
@@ -16072,7 +16072,7 @@
         <v>427.1</v>
       </c>
     </row>
-    <row r="410" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>8001008548</v>
       </c>
@@ -16083,7 +16083,7 @@
         <v>357.6</v>
       </c>
     </row>
-    <row r="411" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>8001008508</v>
       </c>
@@ -16094,7 +16094,7 @@
         <v>352.2</v>
       </c>
     </row>
-    <row r="412" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>8001008546</v>
       </c>
@@ -16105,7 +16105,7 @@
         <v>282.10000000000002</v>
       </c>
     </row>
-    <row r="413" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>8001008524</v>
       </c>
@@ -16116,7 +16116,7 @@
         <v>213.5</v>
       </c>
     </row>
-    <row r="414" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>8001008544</v>
       </c>
@@ -16127,7 +16127,7 @@
         <v>165.8</v>
       </c>
     </row>
-    <row r="415" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>8001008545</v>
       </c>
@@ -16138,7 +16138,7 @@
         <v>156.80000000000001</v>
       </c>
     </row>
-    <row r="416" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>8001009104</v>
       </c>
@@ -16149,7 +16149,7 @@
         <v>154.5</v>
       </c>
     </row>
-    <row r="417" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>8001008550</v>
       </c>
@@ -16160,7 +16160,7 @@
         <v>119.8</v>
       </c>
     </row>
-    <row r="418" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>8001009101</v>
       </c>
@@ -16171,7 +16171,7 @@
         <v>96.23</v>
       </c>
     </row>
-    <row r="419" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <v>8001008526</v>
       </c>
@@ -16182,7 +16182,7 @@
         <v>90.13</v>
       </c>
     </row>
-    <row r="420" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>8001009207</v>
       </c>
@@ -16193,7 +16193,7 @@
         <v>72.13</v>
       </c>
     </row>
-    <row r="421" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>8001008540</v>
       </c>
@@ -16204,7 +16204,7 @@
         <v>66.069999999999993</v>
       </c>
     </row>
-    <row r="422" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>8001009103</v>
       </c>
@@ -16215,7 +16215,7 @@
         <v>28.28</v>
       </c>
     </row>
-    <row r="423" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>8001008551</v>
       </c>
@@ -16226,7 +16226,7 @@
         <v>18.670000000000002</v>
       </c>
     </row>
-    <row r="424" spans="1:3" ht="42" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <v>8059011951</v>
       </c>
@@ -16237,7 +16237,7 @@
         <v>132.69999999999999</v>
       </c>
     </row>
-    <row r="425" spans="1:3" ht="42" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
         <v>8005082600</v>
       </c>
@@ -16248,7 +16248,7 @@
         <v>836.7</v>
       </c>
     </row>
-    <row r="426" spans="1:3" ht="56" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
         <v>8059011733</v>
       </c>
@@ -16259,7 +16259,7 @@
         <v>14418</v>
       </c>
     </row>
-    <row r="427" spans="1:3" ht="56" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <v>8059011732</v>
       </c>
@@ -16270,7 +16270,7 @@
         <v>6264</v>
       </c>
     </row>
-    <row r="428" spans="1:3" ht="42" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
         <v>8031004005</v>
       </c>
@@ -16358,7 +16358,7 @@
         <v>952.1</v>
       </c>
     </row>
-    <row r="436" spans="1:3" ht="42" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
         <v>8031002901</v>
       </c>
@@ -16369,7 +16369,7 @@
         <v>7052</v>
       </c>
     </row>
-    <row r="437" spans="1:3" ht="42" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
         <v>8031003401</v>
       </c>
@@ -16380,7 +16380,7 @@
         <v>917.4</v>
       </c>
     </row>
-    <row r="438" spans="1:3" ht="56" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:3" ht="42" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
         <v>8059009831</v>
       </c>
@@ -16391,7 +16391,7 @@
         <v>3463</v>
       </c>
     </row>
-    <row r="439" spans="1:3" ht="42" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <v>8059009834</v>
       </c>
@@ -16402,7 +16402,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="440" spans="1:3" ht="56" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <v>8059009830</v>
       </c>
@@ -16413,7 +16413,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="441" spans="1:3" ht="56" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
         <v>8059060500</v>
       </c>
@@ -16424,7 +16424,7 @@
         <v>386.1</v>
       </c>
     </row>
-    <row r="442" spans="1:3" ht="56" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
         <v>8059009829</v>
       </c>
@@ -16435,7 +16435,7 @@
         <v>255.1</v>
       </c>
     </row>
-    <row r="443" spans="1:3" ht="56" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
         <v>8059009824</v>
       </c>
@@ -16446,7 +16446,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="444" spans="1:3" ht="56" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
         <v>8059009823</v>
       </c>
@@ -16457,7 +16457,7 @@
         <v>107.2</v>
       </c>
     </row>
-    <row r="445" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
         <v>8031001302</v>
       </c>
@@ -16468,7 +16468,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="446" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
         <v>8031000701</v>
       </c>
@@ -16479,7 +16479,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="447" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
         <v>8031000702</v>
       </c>
@@ -16490,7 +16490,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="448" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
         <v>8031004506</v>
       </c>
@@ -16501,7 +16501,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="449" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
         <v>8031001301</v>
       </c>
@@ -16512,7 +16512,7 @@
         <v>967.4</v>
       </c>
     </row>
-    <row r="450" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
         <v>8031004505</v>
       </c>
@@ -16523,7 +16523,7 @@
         <v>917.1</v>
       </c>
     </row>
-    <row r="451" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
         <v>8031004601</v>
       </c>
@@ -16534,7 +16534,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="452" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
         <v>8031004503</v>
       </c>
@@ -16545,7 +16545,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="453" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
         <v>8031004504</v>
       </c>
@@ -16556,7 +16556,7 @@
         <v>155.6</v>
       </c>
     </row>
-    <row r="454" spans="1:3" ht="56" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:3" ht="42" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
         <v>8059009827</v>
       </c>
@@ -16578,7 +16578,7 @@
         <v>278.5</v>
       </c>
     </row>
-    <row r="456" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
         <v>8001009407</v>
       </c>
@@ -16589,7 +16589,7 @@
         <v>4444</v>
       </c>
     </row>
-    <row r="457" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
         <v>8001009320</v>
       </c>
@@ -16600,7 +16600,7 @@
         <v>2683</v>
       </c>
     </row>
-    <row r="458" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
         <v>8001009607</v>
       </c>
@@ -16611,7 +16611,7 @@
         <v>2499</v>
       </c>
     </row>
-    <row r="459" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
         <v>8001009401</v>
       </c>
@@ -16622,7 +16622,7 @@
         <v>911.6</v>
       </c>
     </row>
-    <row r="460" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
         <v>8001009309</v>
       </c>
@@ -16633,7 +16633,7 @@
         <v>406.6</v>
       </c>
     </row>
-    <row r="461" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
         <v>8059010503</v>
       </c>
@@ -16644,7 +16644,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="462" spans="1:3" ht="28" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
         <v>8059010702</v>
       </c>
@@ -16666,7 +16666,7 @@
         <v>753.3</v>
       </c>
     </row>
-    <row r="464" spans="1:3" ht="42" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A464" s="1">
         <v>8059012038</v>
       </c>
@@ -16716,7 +16716,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -17337,7 +17337,7 @@
         <v>8013012710</v>
       </c>
       <c r="B58" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C58">
         <v>1093</v>
@@ -18186,7 +18186,7 @@
         <v>8059012051</v>
       </c>
       <c r="B136" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C136">
         <v>1403</v>
@@ -18197,7 +18197,7 @@
         <v>8005005622</v>
       </c>
       <c r="B137" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C137">
         <v>1406</v>
@@ -18208,7 +18208,7 @@
         <v>8059012052</v>
       </c>
       <c r="B138" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C138">
         <v>1619</v>
@@ -19736,7 +19736,7 @@
         <v>8005086600</v>
       </c>
       <c r="B278" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C278">
         <v>1498</v>
@@ -19942,7 +19942,7 @@
         <v>8059012047</v>
       </c>
       <c r="B297" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C297">
         <v>1194</v>
@@ -20464,7 +20464,7 @@
         <v>8059012022</v>
       </c>
       <c r="B345" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C345">
         <v>1249</v>
@@ -21222,7 +21222,7 @@
         <v>8005085300</v>
       </c>
       <c r="B415" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C415">
         <v>1526</v>
@@ -21233,7 +21233,7 @@
         <v>8005086500</v>
       </c>
       <c r="B416" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C416">
         <v>1197</v>
@@ -21640,7 +21640,7 @@
         <v>8059012023</v>
       </c>
       <c r="B453" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C453">
         <v>1819</v>
@@ -21651,7 +21651,7 @@
         <v>8059012044</v>
       </c>
       <c r="B454" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C454">
         <v>1428</v>
@@ -21728,7 +21728,7 @@
         <v>8005086700</v>
       </c>
       <c r="B461" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C461">
         <v>2789</v>
@@ -21750,7 +21750,7 @@
         <v>8005085100</v>
       </c>
       <c r="B463" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C463">
         <v>2134</v>
@@ -22099,7 +22099,7 @@
         <v>8059012035</v>
       </c>
       <c r="B495" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.2">
@@ -22496,7 +22496,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D49C18D5-CCEE-A347-B0A7-315F24F14373}">
   <dimension ref="A1:K374"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
@@ -22509,24 +22509,24 @@
     <col min="6" max="6" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="28" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="D1" s="12" t="s">
+      <c r="C1" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>195</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -22597,12 +22597,12 @@
         <f>VLOOKUP(A4,'Original CO Household Income'!A3:C469,3,FALSE)</f>
         <v>52902</v>
       </c>
-      <c r="H4" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="15"/>
+      <c r="H4" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="14"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1">

--- a/Original Data.xlsx
+++ b/Original Data.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chitis/Dropbox/Johns Hopkins/Spring 2021/Decision Analytics/Mini Project 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A35F4B86-1CE2-A948-A94A-9655B20E37CD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C7209F0-0577-DF4D-86EA-2568DDDCF5E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16280" xr2:uid="{1F2CDC2D-36ED-6040-B61B-3E1CDC36F55D}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16280" activeTab="4" xr2:uid="{1F2CDC2D-36ED-6040-B61B-3E1CDC36F55D}"/>
   </bookViews>
   <sheets>
     <sheet name="Original CO Household Income" sheetId="1" r:id="rId1"/>
     <sheet name="Original CO Employement Rates" sheetId="2" r:id="rId2"/>
-    <sheet name="Original CO Job Density" sheetId="4" r:id="rId3"/>
+    <sheet name="Original CO Jobs" sheetId="4" r:id="rId3"/>
     <sheet name="Original CO Rent " sheetId="10" r:id="rId4"/>
     <sheet name="Merged Data" sheetId="3" r:id="rId5"/>
   </sheets>
@@ -628,9 +628,6 @@
     <t>Household Income</t>
   </si>
   <si>
-    <t>Job Density</t>
-  </si>
-  <si>
     <t>Used VLOOKUP to merge data sets for each tract</t>
   </si>
   <si>
@@ -680,6 +677,9 @@
   </si>
   <si>
     <t>Employment Rate</t>
+  </si>
+  <si>
+    <t>Number of Jobs Per Square Mile</t>
   </si>
 </sst>
 </file>
@@ -1263,7 +1263,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA48D955-35D9-9C43-B5B1-127A465D1B25}">
   <dimension ref="A1:C467"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
@@ -11564,7 +11564,7 @@
   <dimension ref="A1:C465"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11573,7 +11573,7 @@
     <col min="3" max="3" width="24.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -11581,7 +11581,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="42" x14ac:dyDescent="0.2">
@@ -16716,7 +16716,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -17337,7 +17337,7 @@
         <v>8013012710</v>
       </c>
       <c r="B58" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C58">
         <v>1093</v>
@@ -18186,7 +18186,7 @@
         <v>8059012051</v>
       </c>
       <c r="B136" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C136">
         <v>1403</v>
@@ -18197,7 +18197,7 @@
         <v>8005005622</v>
       </c>
       <c r="B137" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C137">
         <v>1406</v>
@@ -18208,7 +18208,7 @@
         <v>8059012052</v>
       </c>
       <c r="B138" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C138">
         <v>1619</v>
@@ -19736,7 +19736,7 @@
         <v>8005086600</v>
       </c>
       <c r="B278" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C278">
         <v>1498</v>
@@ -19942,7 +19942,7 @@
         <v>8059012047</v>
       </c>
       <c r="B297" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C297">
         <v>1194</v>
@@ -20464,7 +20464,7 @@
         <v>8059012022</v>
       </c>
       <c r="B345" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C345">
         <v>1249</v>
@@ -21222,7 +21222,7 @@
         <v>8005085300</v>
       </c>
       <c r="B415" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C415">
         <v>1526</v>
@@ -21233,7 +21233,7 @@
         <v>8005086500</v>
       </c>
       <c r="B416" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C416">
         <v>1197</v>
@@ -21640,7 +21640,7 @@
         <v>8059012023</v>
       </c>
       <c r="B453" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C453">
         <v>1819</v>
@@ -21651,7 +21651,7 @@
         <v>8059012044</v>
       </c>
       <c r="B454" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C454">
         <v>1428</v>
@@ -21728,7 +21728,7 @@
         <v>8005086700</v>
       </c>
       <c r="B461" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C461">
         <v>2789</v>
@@ -21750,7 +21750,7 @@
         <v>8005085100</v>
       </c>
       <c r="B463" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C463">
         <v>2134</v>
@@ -22099,7 +22099,7 @@
         <v>8059012035</v>
       </c>
       <c r="B495" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.2">
@@ -22496,8 +22496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D49C18D5-CCEE-A347-B0A7-315F24F14373}">
   <dimension ref="A1:K374"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22509,7 +22509,7 @@
     <col min="6" max="6" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="28" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -22517,13 +22517,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F1" s="11" t="s">
         <v>195</v>
@@ -22598,7 +22598,7 @@
         <v>52902</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I4" s="13"/>
       <c r="J4" s="13"/>
